--- a/result_5_Catalase_peroxidase_NP_012992_1.xlsx
+++ b/result_5_Catalase_peroxidase_NP_012992_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zqian/Documents/bio_code/peroxibase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE767203-E6E1-5B4B-85E7-D427CB2533B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FFE75B-492B-6B43-A8AF-86846FCA0756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_5_all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result_5_all!$A$1:$V$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result_5_all!$A$1:$R$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="211">
   <si>
     <t>qseqid</t>
   </si>
@@ -79,18 +79,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Fasta</t>
-  </si>
-  <si>
-    <t>Name_Class</t>
-  </si>
-  <si>
     <t>8405|MpaKat01|</t>
   </si>
   <si>
@@ -109,20 +97,6 @@
     <t>Catalase</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>Marcel Zamocky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;8405|MpaKat01| [Mucilaginibacter_paludis]|Bacteroidetes/Chlorobi|Catalase|complete|
-MDDQKKKLTTAAGIPYAENENSMTIGPRGPILLQDFILHEKMAHFNRERIPERVVHAKGSGAYGTFTVTHDITKYTRAKIFNTIGKQTKVFLRFSTVGGEKGSADTERDPRGFAIKFYTEEGNWDLVGNNTPVFFVKDPKKFGDFIHTQKRDPYTNCKSATMMWDFWSLNPESLHQVTILMSDRGTPYGYRHMDGFGSHTFSFINADNERYWVKFHFKTQQGIKNFTDEEAGVMRGKAPDFAQHDLLTSIDNGDFPKWSLKIQIMTEEEARNYKFNPFDLTKVWPHADFPLIDVGVLELNENPDNYFAHVEQAAFAPAHVVDGISYSPDKMLQGRLLSYPDAHRYRLGGNYEQIPVNRCPFMVNNYQRDGQMRIDGNHGSSPNYFPNSFDDIVADPAYKEPAWDLRNQVADWYDRNAEGENDHYTQPGNLYRLMSETAKQDLIKNIVNSMSGIDGPKKEIIVNRQLCHWFRADMNLGMAIAQGLNLNLQETMKHMPVQV
-</t>
-  </si>
-  <si>
-    <t>MpaKat01_Catalase</t>
-  </si>
-  <si>
     <t>NP_010542.1</t>
   </si>
   <si>
@@ -141,17 +115,6 @@
     <t>Catalase peroxidase</t>
   </si>
   <si>
-    <t>Christophe Dunand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;8377|LbyCP01| [Leadbetterella_byssophila]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MENISGDISKCPFHNGTMDKEKISTEGTQNSHWWPNSLSLDILRQHSPLVDPNDEGFNYQEEFKTLDLEAVKKDIAALMTDSQDWWPADFGHYGPFFIRMAWHSAGTYRLQDGRGGAGRGQQRFAPLNSWPDNANLDKARRLLWPVKQKYGRKLSWADLMILTGNVALETMGFKTLGFGGGRADVWEADKDIYWGDEKEWVASHRNPEALANPLAATEMGLIYVNPEGPDRNPDPLLAAKAIRKTFGNMGMNDEETVALIAGGHTFGKTHGAGDAAHVGPEPEAADMELQGLGWISSFGSGKGADTITSGLEVTWTSTPTKWSNNFFWNLFGYDWELTKSPAGAHQWIPKHGAGANSVPKAHNKEEREAPAMLTTDLALRFDPIYEKISRRFYENPDEFADAFAKAWFKLTHRDMGPKSRYLGPEVPAEDFIWQDPLPKADYEAIDDVDVAQLKAKIAASGLTVSEMVSTAWASASTFRGSDKRGGANGARVRLAPQKFWAVNNPTQLSSVLDKLEAIQNEFNATSGSKKVSLADLIVLAGNVGVETAAKNAGVDITVPFAKGRVDATQEQTDIEQFSFMEPFADGFRNYLKVKTSTSTESLLVDKAQLLTLTIPEMTVLVGGMRVLGTNYDNSKHGVFTDKVGTLTNEFFTNLLDMSTVWKATDETKELFQGTDRKSGELKWTGTRYDLVFGSHSELRAIAEVYASADAKEKFVKDFVKAWTKVMNLDRFDLQ
-</t>
-  </si>
-  <si>
-    <t>LbyCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>8372|PsalCP01|</t>
   </si>
   <si>
@@ -161,14 +124,6 @@
     <t>Pedobacter saltans</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;8372|PsalCP01| [Pedobacter_saltans]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MEKESNDISKCPFHNGTLRNSVAGGGTQNRDWWPNQLKVSILRQHDTKSNPMDKGFNYAEEFKSLDLQAVKRDLHALMTDSQEWWPADFGHYGPLFIRMAWHSAGTYRVQDGRGGAGEGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGRKISWADLLVLTGNVALESMGFKPLGFAGGREDVWEPNTDVYWGSEKTWLGGDVRYAHGSEGVVENHGVLVSDDDADGDVHSRDLENPLAAVQMGLIYVNPEGPDGNPDPILAAKDIRDTFGRMAMNDEETVALIAGGHTFGKTHGAAPADNVGKEPESADMEMQGLGWHNSYGTGKGADTITSGLEVTWTSKPTEWSNLFFEYLFDFEWELTKSPAGAHQWEAINAEEIIPHAHDPNKKIKPRMLTTDLSLRLDPEYGKISRRFRDNPEEFANTFAKAWFKLTHRDMGPRERYLGPEVPKEVFIWQDPVPPVDHELINEADIESLKQQILGLGLSVSELVSTAWASASTFRGSDKRGGANGARIRLQPMNNWEVNNPAQLNKVLRALEGLQNQFNATTGKKVSLADLIVLAGAAGVEKAARDAGHHITVPFTPGRTDASQEQTEVDSIAYLEPTADGFRNYRKYKNHAVSTEELLIDKAHLLTLTAPELTVLIGGMRALNTNYDGSKHGVFTDRPGQLTNDFFVNLLDMGTEWKAMDQSKELYLGTSRKTGQPRWTGTRNDLVFGSNAELRALAEVYASDDAKEKFVNDFVAAWNKVMNLDRFDLK
-</t>
-  </si>
-  <si>
-    <t>PsalCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>7332|SpliCP01|</t>
   </si>
   <si>
@@ -178,14 +133,6 @@
     <t>Spirosoma linguale</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7332|SpliCP01| [Spirosoma_linguale]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MGDHIYPSESSDTKSYNVNGESKCPFTGATAKQSAGSGTRNRDWWPNQLKLNVLRQHSPLSNPMDKAFNYAEAFKSLDLNAVKNDIFDLMTTSQDWWPADYGHYGPFFIRMAWHSAGTYRIADGRGGAGSGTQRFAPLNSWPDNANLDKARLLLWPVKKKYGRKISWADLMILAGNCALESMGFKTFGFAGGREDVWEPEEDIYWGAETEWLGDKRYSGDRELENPLAAVQMGLIYVNPEGPNSRPDPLASARDIRETFGRMAMNDEETVALIAGGHTFGKTHGAADPGQYVGAEPAGAGIEEQSLGWKNTFGTGNAGDTITSGLEGAWTTTPTQWDNNYFDNLFGFDWELTKSPAGAHQWRPKDGAGAGTVPDAHDPAKRHAPMMFTTDLALRMDPIYEPISRRFHENPDQFADAFARAWFKLTHRDMGPIARYLGPEVPTEELIWQDPIPAVTHPLIDEQDTAALKKMILASGLSVSQLVSTAWASASTFRGSDKRGGANGGRLRLAPQKDWDVNHPGLLATVLEKLEGIQIDFNSMQQDGKQVSLADLIVLGGSVGIEQAAKKAGHEVTVPFTPGRADASQEQTDVESFAVLEPESDGFRNYSKTKYTVSAEEMLIDKAQLLTLNAPEMTVLVGGMRVLNTNYGFSKHGVFTKRPEALTNDFFVNLLDLGTTWKAASQHQDVFEGRDRTTGELKWTGTRVDLIFGSNSELRALAEVYACEDAQEQFVQDFVAAWTKVMNLDRFDLA
-</t>
-  </si>
-  <si>
-    <t>SpliCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>7267|CgleKat01|</t>
   </si>
   <si>
@@ -195,14 +142,6 @@
     <t>Chryseobacterium gleum</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7267|CgleKat01| [Chryseobacterium_gleum]|Bacteroidetes/Chlorobi|Catalase|complete|
-MNMKTNEHNKKAEQLDLHSTSNENEKLTTNQGLKINNNQDSLKAGERGPSLLEDFILREKITHFDHERIPERVVHARGSGAHGIFKLTKSLAEYTKAKFLTELGKETPVFVRFSTVAGSKGSTDLARDVRGFAVKFYTEEGNYDLVANNMPVFFIQDAIKFPDLVHAVKPEPDNEIPQAASAHDTFWDFISLMPESMHMIMWLMSDRAIPRSLRMMEGFGVHSFKFINEAGKVHFVKFHFKPRLGVHSVAWNEAQMISGVDPDFHKRDLWEAIENGDYPEWDFGVQLIPEEDEHKFDFDLLDPTKIVPEEEVPVEIVGTLTLNKNPDNFFAETEQVAFHPGHIIPGIDFTNDPLLQGRLFSYTDTQLSRLGSPNFHEIPINRSLNTVHNNQRDGHMRQQIVKGKSSYEPNSIGGGCPFQAMMSEGGFTSQQERVSGVKIRERSKSFVDHYSQAKLFYNSQSTPEKMHLQNALIFELSKVTRPEIRERLVGQLAYIDMSLAWSVAEKLGVEVKKLEWSNQSLPADSNIIELQSEEREPDTKVSGALSMAHTVKNTIKSRKIGFILANGADGGAVNDLKTKLEAEGARVELIAPSVAPVRLNDGSELIPKHSLTSIASVCFDALAICPGEEAVKELMTSENKHQVLHFINEAYKHCKAIYFGKDTEVLYQNSNVATKQHEDPGIITWEDGNPADKFIQAIAQHRVWDLETERNA
-</t>
-  </si>
-  <si>
-    <t>CgleKat01_Catalase</t>
-  </si>
-  <si>
     <t>7265|CatKat01|</t>
   </si>
   <si>
@@ -212,14 +151,6 @@
     <t>Croceibacter atlanticus</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7265|CatKat01| [Croceibacter_atlanticus]|Bacteroidetes/Chlorobi|Catalase|complete|
-MSDKENLQPDSNSKTDQLSSYTKDSEGKNLTTNQGLKVNDTNNSLKAGERGSTLLEDFLLREKITSFDHERIPERIVHARGSAAHGHFELYKSIEKYTKAGLFTDTSKKTPVFVRFSTVAGSKGSPDLARDVRGFAVKFYTEEGTWDLVGNNMPIFFIQDAMKFPDLIHSVKPEPNNEIPQAASAHDTFYDFVSHAPETLHNHIWAMSDRAIPRSYRMMEGFGIHTFRFINKEGKSHFVKFHWKPVLGVHSVTWEEAVKINGVDADFHRRDLWEAIEAGQYPEWEFGIQVVPEEDEHKYDFDLLDPTKLIPEDMVPVEIVGKMTLNRNPSNFFAETEQVAFLPGHIIPGLDFTNDPLLQGRLFSYRDTQLSRLGSPNFHQIPINRPVTPAHNNQRDGHMQTEIPKGQTAYFPNTLGGGCPHLAKMAEGGFTSYEERIDAKKVRTRSESFSDHFSQPALFYRSLEEWEKKHVANAYSFELGKCNQKHIKERMLWLINQIDEDLANTVSENLGLSIPDDIEQPINQSIGADADVEKFQPSAKKVYLEKDKSLSQAHTKFDSIATRQIAVLAANGFSMDDFKTFTDALEDEGAVCKIIAPHGGTIKCDQDMDHEVDAAISTTESVLFDAIFVPGGKDSVDKLLKTGKYSKFISEAFKHCKAIAVCNEGEELLKNSYIKSYDDDKAVFVNGKPKNFIDAIAQHRNWDRMEAASDIPV
-</t>
-  </si>
-  <si>
-    <t>CatKat01_Catalase</t>
-  </si>
-  <si>
     <t>7262|FbKat01|</t>
   </si>
   <si>
@@ -229,14 +160,6 @@
     <t>Flavobacteriaceae bacterium</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7262|FbKat01| [Flavobacteriaceae_bacterium]|Bacteroidetes/Chlorobi|Catalase|complete|
-MKVNEQEPFANGANPKIEQLGKYKNSDHGEFMTTDHGVKINDDQNSLLGGERGPSLLEDFIFREKMTHFDHERIPERIVHARGSGAHGYFQLYKPMGKYTKAKFLNDTTIKTPVFVRFSTVQGSRGSTDLPRDIRGFATKFYTQEGNYDLVGNNTPVFFIQDAMKFPDLVHALKPEPDNEIPQAASAHDTFWDFISLMPEAMHNIMWLMSDRAIPRTYRAMEGFGIHTFRFINEEGQSHFVKFHWKPLQGVLGLAWDEAQRLSGKDNDFHRRDLWDAIENGMYPEWELGVQIVPQEDEHKFPFDLLDATKMIPEEMVPVEIIGKMTLNKNPDNFFAETEQIAFHPGHIVPGIDFTNDPLLQGRLFSYTDTQLSRLGGPNFHEIPINRSIPDVTNNQRDGLHRMQIPKGKVSYHPNSMAQGCPFQAMMKEGGFTSFEERIDSRKIRNRSRSFFDHFSQPTLFYNSLTDHEKRHVQNAFSFELGKVKLVPIRQRMVNMLLEVDKELANKVGDHLGLVPERLPQPITDSIPADGKLEDYHSFKAELPISEAPSVSMATKLPQNIKARRIAILTADGVSDEAFTKVKKVLCEMDALVQIIAPRHGFVTTASGDQYPVDDSLLTTASVIFDAVYIPGGDSVKTLMEHAGAIHFVAEAYKHCKPFGADGNGVDLLQKAIPKLTLPADGIVTEGDLDLFTASIILHRFWDREMNPLPA
-</t>
-  </si>
-  <si>
-    <t>FbKat01_Catalase</t>
-  </si>
-  <si>
     <t>7261|GfoKat01|</t>
   </si>
   <si>
@@ -246,14 +169,6 @@
     <t>Gramella forsetii</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7261|GfoKat01| [Gramella_forsetii]|Bacteroidetes/Chlorobi|Catalase|complete|
-MKEDKGNAKQKDMQQNTSDAEGKTMTTNQGLKVNDTNNSLKAGERGATLLEDFILREKITHFDHERIPERIVHARGSAAHGYFELYESQEKYTKAGIFTDTKRKTPVFTRFSTVAGSKGSADMARDVRGFAVKFYTEEGIFDLVGNNMPIFFIQDAMKFPDLIHAVKPEPHREIPQAASAHDTFYDFVSRTPETLHNHIWVMSDRAIPRSLRMMEGFGIHTFRLINKEGKSHFVKFHWKPLLGVNSVTWDEAVKLHGADSDFHRRDLWDAIDSGQFPEWELGIQVVPEEDEHKFDFDLLDPTKLIPEEMVPVQRIGKMTLNRNPDNFFAETEQVAFHPGHIVPGIDFSNDPLLQGRLFSYTDTQLSRLGSPNFHEIPINRPVNPTHNNQRDGHMRMTVNKGNTAYFPNSMSGGCPHLAKMAEGGFTSYEERIDANKVRARSESFSDHFSQPGIFYRSLKDWEKNHVAEAYSFELGKCNHDYIKERMLWLINNIDEDLAKKVADNLGLKIPSKIEKPVNQAIGADDDGKKNEPQKRKDYIEKSEALSQTHIKADSIATRKIAFLVGDGFDAENVGSMKEALEKKNAVVNLVATHGGKVKCSKGEMHKVDAALMTTESVAFDALYIPGGSKSVKALKDSAKAKKFINESLKHCKAIAVDSEGEELFDETFGKDFKDDDAICINKKPADFIKAIGMHRNWNREEKAKMIPA
-</t>
-  </si>
-  <si>
-    <t>GfoKat01_Catalase</t>
-  </si>
-  <si>
     <t>7258|DferKat01|</t>
   </si>
   <si>
@@ -263,14 +178,6 @@
     <t>Dyadobacter fermentans</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7258|DferKat01| [Dyadobacter_fermentans]|Bacteroidetes/Chlorobi|Catalase|complete|
-MAKRKAQQNPAVDQPENDKIRSLEPHMEDSTGELMNTNTGVRINDDQNSLKAGDRGASLLEDFILREKITHFDHERIPERVVHARGSGAHGFFKLYEPLGQYTKAQFLNDTSIETPVFVRFSTVAGSRGSTDLARDVRGFAVKFYTQEGNFDLVGNNMPVFFIQDAIKFPDLVHAVKPEPDNEIPQAASAHDTFWDFISVMPESAHMIMWLMSDRAIPRSYRMMEGFGVHTFRLINAEGVSHFVKFHWKPLLGVHAVAWDEAQNISGKDPDYHRRDLWDAIESGNFPEYELGLQIVPEADEFKFEFDLLDPTKIIPEELVPVIKVGKLTLNRNPENFFAETEQSAFHIGHVVPGIDFTNDPLLQGRLFSYTDTQLIRLGGPNFQEIPINRPIVPVHNNQRDGYMRQTINRGKISYGPNSLGDNYPLQAKASEGGFTSYPERIDARKIRARSKSFLDHFSQARLFFNSQSDPEKNHMIEAFSFELGKVQSVEVRQRMLGILSMVDKGLAAEVAFSLRLSVPEDPELPVNRSIPADGDPADYDPVMVEGSLAASAALSMANSPKDSIKTRKIAFLAADGVDSNSLNTVKAALEAEGAIVEVIAPRLNYVLSTTDEEIHVHHSFLTAASVLYDAVFVPGGTNSVATVEADADAVHFLNEAFKHCKAIAADAGAMQVIEATYFAKKIPAEFSDEAVLLDGIVISDDPATLARRFITAIAQHRFWEREKPRKIPA
-</t>
-  </si>
-  <si>
-    <t>DferKat01_Catalase</t>
-  </si>
-  <si>
     <t>7256|CHpiKat01|</t>
   </si>
   <si>
@@ -280,14 +187,6 @@
     <t>Chitinophaga pinensis</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7256|CHpiKat01| [Chitinophaga_pinensis]|Bacteroidetes/Chlorobi|Catalase|complete|
-MPDKKKTPIPSTENKKIAELSPNKEDSTGQDLNTNTGVKISDDHNSLKAGDRGPTLMEDFIFREKMTHFDHERIPERVVHARGSAAHGVFKVYESMEKYTKAGFLTDTSRETPVFVRFSTVAGSRGSTDLARDVRGFAVKFYTDEGIFDLVGNNMPVFFIQDATKFPDLVHAVKPEPHNEIPQAASAHDTFWDFISLMPESTHMIMWLMSDRAIPRSYRMMEGFGVHTFRFVNANEESCFVKFHWKPLLGVHSVAWDEAQKISGKDPDFHRRDLWEAIESGNFPEWELGVQIVPEADEHKFDFDLLDATKIIPEELVPVQRIGKLTLNRNPDNFFAETEQVAYHIGHVVPGIDFTNDPLLQGRLFSYTDTQLIRLGGPNFQEIPINRPVVPVHNNQRDGYMRQTINKGRTSYSPNSLGGGYPSQVKAADGGFRSYTEKIDARKIRERSRSFFDHYTQATLFFNSQSAPEKQHLIDALRFELGKVDTVAVRQRMIGILTQVDKDLAAQVAYGLGLEVPAGPEQPVNHGVPADADPAHYEPFPPKEPVPDISLALSMANTVKDSIQTRKIGFLAADGVDAASVNAAKSALEAAGAVVEIIAPHLGEIVAADGSLIPVQKSLLTASSVFYDALYVPSGPTSSGTLEADADAVHFLNEAYRHCKAIAAHADARQVLEATYFAKKLPEDDSEESALMEGVVVQEDVKKLSKIFISAIALHRFWEREKPRRVPA
-</t>
-  </si>
-  <si>
-    <t>CHpiKat01_Catalase</t>
-  </si>
-  <si>
     <t>7255|PhepKat01|</t>
   </si>
   <si>
@@ -297,28 +196,12 @@
     <t>Pedobacter heparinus</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7255|PhepKat01| [Pedobacter_heparinus]|Bacteroidetes/Chlorobi|Catalase|complete|
-MEKKKPNAENAVNLKQKDLAPDTISDQGELMTTNQGLKINDDTNSLKAGERGPSLLEDFILREKITHFDHERIPERIVHARGSGAHGYFQVYESMGKYTKAGFLQDPSVKTPVFVRFSTVAGFRGSTDLARDVRGFSVKFYTQEGNYDLVGNNMPVFFIQDAIKFPDLIHAAKPEPDNEIPQAATAHDSFWDFISLSPESMHMIMWAMSDRAIPRSLRMMEGFGVHTFRFINAEGKSSFVKFHWKPILGMHAVAWDEALKISGKDPDFHRRDLHDAIESGAFPEWEFGVQIVAQEDEHKFSFDLLDPTKLIPEELVPVQRIGKMVLDRNPDNFFAEVEQVAFHPGHLVPGIDFSNDPLLQGRLFSYTDTQLSRLGSPNFHEIPINRSVNTVHNNQRDGHMRQQINVGKSSYHPNSVAGGSPAQATIAEGGFSSYEERVDAHKVRARSKSFMDFFSQATLFFNSQSEPEQNHIADALKFELGKVERVEIRQRMVNLLTLISVPLANTVADSLGLKAGKPQEPVNHVLGADANPADYKPVKVKSEIEKSPALSMANAPKDSIKTRQVAFLAANGVESTDFENMKKALLAAGAVVKVVAPKNGTLKDSAGKEIKIDMSFLTGTSVVFDAVYVPGGGKSIDALLAEPDAVHFINEAYRHCKAIAATGKGAELINQSYVGAKLKNGNADAKAGILTEAAPDAFIKAIAQHRFWQREKKDKVPA
-</t>
-  </si>
-  <si>
-    <t>PhepKat01_Catalase</t>
-  </si>
-  <si>
     <t>7254|SpliKat01|</t>
   </si>
   <si>
     <t>SpliKat01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7254|SpliKat01| [Spirosoma_linguale]|Bacteroidetes/Chlorobi|Catalase|complete|
-MSTEQNKTNTNAKLDELDMNREDSSGQFLTTNQGLRVNDDQNSLKAGPRGATLLEDFILREKITHFDHERIPERIVHARGAAAHGYFQAYEPQPELTKAKFLLDPSVQTPVFVRFSTVAGSRGSTDLARDVRGFAVKFYTEEGNFDLVGNNIPVFFIQDAIKFPDLIHAVKPEPNNEIPQAASAHDTFWDFISLTPESMHMVMWVMSDRAIPRSYRMMEGFGVHTFRLINANGKSRFVKFHWKPLLGVHSVVWDEAQLISGRDPDFHRRDLWDAIEGGAYPEWELGVQVVEEEDEHKFDFDLLDSTKLIPEELVPIVRLGKMTLNRNPDNYFAETEQVAFHLGHVVPGIDFSNDPLLQGRLFSYTDTQLKRLGGPNFHEIPINRPIAPVHNGQRDGHMRQTINVGRTSYGPNAINGDSPAQATEAEGGFVSHAERIDANKVRARSKSFMDHYNQAKLFWNSQSPTEKTHIVKALRFELGKVVVEDIRKRMLIHLSQIDTTLATLVGEGLGLEVPSAEGVQLNKSVPADANPADYQSEPAKSTVGSSAALSMAHPPKKGIKTRQVAILAADGVDATQLKSMMNALSAEKAIIGIVAPRVGMLKTSGGETIKIDASLQTTASVLFDAVYVPGGQSSVKSLLQEPDAIRFIHEAFMHCKALAATGEGADLLQAAANGGAESLLSSEGVITSSDTGSEVPQKFIDAIEQHRFWSREKKLV
-</t>
-  </si>
-  <si>
-    <t>SpliKat01_Catalase</t>
-  </si>
-  <si>
     <t>7232|RmaKat|</t>
   </si>
   <si>
@@ -328,14 +211,6 @@
     <t>Rhodothermus marinus (Rhodothermus obamensis)</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7232|RmaKat| [Rhodothermus_marinus_(Rhodothermus_obamensis)]|Bacteroidetes/Chlorobi|Catalase|complete|
-MEARKAPRLTTADGRPIGDNQNALTAGPRGPLLIQDVQLLEQIQHFNRERIPERVVHAKGSGAYGTFTVTNDVTRYTKAAFLSEVGKQTEVFVRFSTVAGERGAADAERDVRGFAVKFYTEEGNFDLVGNNTPVFFVRDPYKFQMFIHSQKRHPKTNLRDPDMQWDFWSLCPESLHQVTILFSDRGIPASYRHMNGYGSHTYSMYNDRGELFWVKFHFKTQQGIKCLTDEEAARLIGEDRETHQRDLYEAIERGDYPRWTLYIQVMTPEQAENFRWNPFDLTKVWPHAEFPLIEVGVLELNRNPENYFAEVEQAAFKPSAFVPGIGPSPDKMLQARLMSYADAHRYRLGVNYQQLKVNRPRCPVHHYQRDGFMAQIEGSGHPNYFPNSIPGSPQDDPIYKEPAWHLGEVIVDRYDSRKDHDDYTQAGNLYRLFDEGQKDRLARAIAASLGQARLEVQKRQLGHFYRADVDYGRRVARALGFDPAAIEAELGIDASVAG
-</t>
-  </si>
-  <si>
-    <t>RmaKat_Catalase</t>
-  </si>
-  <si>
     <t>7193|BBFL7CP03|</t>
   </si>
   <si>
@@ -345,70 +220,30 @@
     <t>Flavobacteria bacterium BBFL7</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;7193|BBFL7CP03| [Flavobacteria_bacterium_BBFL7]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MINTFIKNTLMENFKNSNGSNGDSQAKCPFSSEIVKKAAGGGSRNHDWWPNQLNLNVLRQHSSLSNPMDKDFDYKKEFESIDFDALKADIFELMTESQDWWPADYGHYGPLFIRMAWHSAGTYRIADGRGGAGAGTQRFAPLNSWPDNANLDKARLLLWPIKQKYGKKVSWADLMILAGNCALESMGFKTFGFGGGRTDVWEAEEDIYWGVEGEWLGDQRYTEDRELENPLAAVQMGLIYVNPEGPNGKPDPLASAVDIRETFGRMAMNDEETVALIAGGHTFGKTHGADNPDVYVGAEPAGARIEEQGLGWKNTLGSGNGVNTITSGLEGAWTTTPTQWSNNYFENLFGFEWELTKSPAGAHQWKPKSGGGAGTVPDAHDASISHAPTMLTTDIALREDPAYEAISRRFYENPDEFADAFARAWYKLTHRDMGPHSLYLGPEVPKEELIWQDPIPVRSTQLIDNKDIADLKAKILASGLSVSELVSTAWASASTFRGSDKRGGANGARICLAPQKDWEVNNPVQLNKVISALEAIKNDFNSASSGGKEVSMADLIVLAGSVAVEKAAKNAGHDVSVPFSPGRTDATQAQTDAESFAALEPNADGFRNYLRNKYKASEEELLVDRAQLLTLSAPEMTVLMGGLRVLNTNYDQSKRGVFTSQPEALTNDFFVNLLDFGTTWSAVSDSENLFEGKDRKTGAVKWSASRSDLIFGSNSELRGIAEVYACSDSEGKFISDFVSAWTKVMNLDRFDLA
-</t>
-  </si>
-  <si>
-    <t>BBFL7CP03_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>6984|CgleCP01|</t>
   </si>
   <si>
     <t>CgleCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6984|CgleCP01| [Chryseobacterium_gleum]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MEKDLNDISKCPFHNGTMKKNNVAGGGTKNSDWWPDQLRVDLLRQHSSLSDPMDKDFDYAKAFESLDLEAVKKDLHALMTDSQDWWPADFGHYGPLFIRMAWHSAGTYRVGDGRGGAGAGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGKNISWADLLILTGNVALESMGFKTFGFAGGRADVWEPHSDVYWGSEKTWLGGDLRYAHGSEGVVEGQSAVLPTDDNADGDIHSRNLENPLAAVQMGLIYVNPEGPDGNPDPIAAAKDIRDTFGRMAMNDEETVALIAGGHTFGKTHGAGPADHVGKEPEGAGIELQGLGWASTYKSGSGRDAISSGLEVTWTETPTQWSNYFFKNLFENEWELTKSPAGAHQWVAKDGAEIIPDAFDSSKKHKPTMLTTDLSLRFDPVYEKISRHFYENPDAFADAFARAWFKLTHRDMGPRARYLGPEVPQEELIWQDPIPKVDHELIDENDAEALKSKILNSGLSISELVSTAWASASTFRGSDKRGGANGARIRLEPQRNWEVNNPSQLNKVLGVLEGIQKEFNDSQSGGKKISLADLIVLAGNAAVEVAARNAGQDVKVPFAPGRMDALQEQTDVESMGYLEPAADGFRNYLKRKYTVSTESLLIDKAQLLTLTAPELTVLIGGMRALDTNFDGSKHGIFTNRPGVLTNDFFVNLLDMSTQWKAMSDDKELYIGSDRSTGQPKWTATRADLVFGSNSELRAVAEVYGSSDAQSKFVKDFVAAWTKVMNLDRFDLV
-</t>
-  </si>
-  <si>
-    <t>CgleCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>6982|DferCP01|</t>
   </si>
   <si>
     <t>DferCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6982|DferCP01| [Dyadobacter_fermentans]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MENGSNDISKCPFHNGTMNHNVGGGGTRNRDWWPNQLKLNILRQHSSLSSPMGEDFNYAEAFKSLDLEAVKTDLHALMTDSQDWWPADFGHYGPLFIRMAWHSAGTYRVFDGRGGGGSGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGNKISWADLLILAGNIALESMGFKTFGFAGGRADVWEADEDVYWGSENTWLGNDRRYAHGQPGLAEPGVLVSDEDAGGTTHSRNLEEPLAAAHMGLIYVNPEGPDGNPDPIAAAKDIRDTFGRMAMNDEETVALIAGGHSFGKTHGAASSDHVGAEPEGADLENQGLGWSNSFGTGKGAHTITSGLEVTWTTTPTQWSNNFFENLFAFEWELTKSPGGAHQWVAKDAGEIIPDAYDGSKKHRPTMLTTDLSLRFDPAYEKISRHFLENPDAFADAFARAWFKLTHRDMGPRARYLGADVPQEVLIWQDPVPAVDHDLVTDSDIAGLKANILASGLTVPELVATAWASASTFRGSDKRGGANGARIRLAPQKDWKVNNPAQLQKVLRTLESIQQEFNATTGGRKISLADLIVLAGSAAVEKAAQDAGHAVTVPFTPGRTDASQEQTDVESVGHLEPIADGFRNYRGTKFKVSTEELLIDKAQLLTLSAPEMTVLLGGLRVLNINFDGSKHGVFTQRPGVLTNDFFVNLLDMNTAWKAMGDDRETYLGSDRASGQPKWTASRADLVFGSHAELRAIAEIYASADSGAKFAKDFVAAWTKVMNLDRFDLV
-</t>
-  </si>
-  <si>
-    <t>DferCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>6981|CHpiCP01|</t>
   </si>
   <si>
     <t>CHpiCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6981|CHpiCP01| [Chitinophaga_pinensis]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MEKELNDISKCPFHNGTLKHNTGGGGTRNRDWWPNQLKLNILRQHAPASNPLGGDFNYAAAFKSLDLEAVKKDLHALMTDSQDWWPADFGHYGPLFIRMAWHSAGTYRVTDGRGGAGSGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGRSLSWADLLILTGNVALESMGFKTFGFAGGREDKWESEEDVYWGAETTWLGGDIRYAHGSEGVPKEHGVVSSDDDADGDIHSRDLEKPLAAVQMGLIYVNPEGPDGNPDPIAAAKDIRDTFGRMAMNDEETVALIAGGHSFGKTHGAAPSSHVGKEPEAAGLESQGLGWNNSYGSGKGADTITSGLEVIWTTTPTQWSNNFFENLFNFEWELTKSPAGAHQWVAKNADDIIPDAYDSSKKHRPTMLTTDLSLRFDPVYEKISRRFLEDADAFADAFARAWFKLTHRDMGPRVRYLGPDVPEEVLLWQDPIPATDHPLIDENDIAALKAKVLESGLSVSELVSTAWASASTFRGSDKRGGANGARIRLAPQRYWKVNNPSQLQKVLDVLEGIQKAFNNGGKKVSIADLIVLAGAAGIEKAAKDAGQTLTVPFTPGRGDASQDQTDVESVGFLEPVADGFRNYRKSRVPASTEALLIDKAQLLTLTAPELTALTGGLRVLNTNYNGGSEGVFTKRPGVLTNDFFVNLLDMKTAWKAVSADQELFEGTDRTSGEVKWTATRADLVFGSNAELRAIAEVYGAGDGQELFIKDFVAAWNKVMNLDRFDLAK
-</t>
-  </si>
-  <si>
-    <t>CHpiCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>6980|PhepCP01|</t>
   </si>
   <si>
     <t>PhepCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6980|PhepCP01| [Pedobacter_heparinus]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MENNPNDISKCPFHNGSMKHNVGGGGTRNKDWWPNQLKLNILRQHSSLSNPMDKDFNYAEAFKSLDFAALKKDLHALMTDSQDWWPADFGHYGGLFIRMAWHSAGTYRVGDGRGGAGAGLQRFAPLNSWPDNVSLDKARRLLWPVKQKYGRNISWADLMILTGNVALESMGFKTFGFAGGREDVWEADESVYWGAETTWLGGDLRYAHGSPGVEGDGVLVTDDNADGNIHSRNLEKPLAAVQMGLIYVNPEGPDGNPDPIAAAKDIRDTFGRMAMDDEETVALIAGGHSFGKTHGAASADHVGKEPEAVDIEMQGLGWRNSYGTGKGADAITSGLEVIWTKTPTQWSNNFFENLFGFEWELSKSPAGAQQWVAKNAEAFIPDAFDGSKKHRPTMLTTDLSLRFDPAYEKISRRFFENPDAFADAFARAWFKLTHRDMGPRERYLGPEVPQEELIWQDPIPAVNHVLINENDIAALKAQVLESGLSIAELVSTAWASASTFRGTDKRGGANGARIRLAPQKYWQVNNPPQLQKVLNILEGIQKEFNTAQTAGKKVSLADLIVLAGCAGVEKAATTAGYAITVPFIPGRMDASQEQTDVESFGYLEPAADGFRNYRKSKIPVSTEELLIDKAHLLTLTIPELTVLLGGMRVLDTNFDASKHGIFTSKPGQLSNDFFVNLLDMNTVWKAASADREVYEGRDRNTGEIKWTGTRADLVFGSNSELRAVAEVYGSSDSRQKFITDFVFAWNKVMNLDRFDLG
-</t>
-  </si>
-  <si>
-    <t>PhepCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>6288|FjKat01|</t>
   </si>
   <si>
@@ -418,14 +253,6 @@
     <t>Flavobacterium johnsoniae</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6288|FjKat01| [Flavobacterium_johnsoniae]|Bacteroidetes/Chlorobi|Catalase|complete|
-MKNFQDEKQRDLLINKSDGTNKFLTTDQGVKINDDNNSLKAGERGPSLLEDFILREKITHFDHERIPERIVHARGSGAHGFFEVTNPIPELTKAGFLQEKGLKTPVFTRFSTVAGSRGSTDLARDVRGFSVKFYTQEGIYDLVGNNVPVFFIQDASKFPDLIHAVKPEPHNEIPQAASAHDTFWDFISLMPESMHMIMWAMSDRAIPRSYRMMEGFGVHTFRLINEAGESVFVKFHWKPKLGTHAVAWDEAQKISGKNPDFHRQDLWEAIEAGNFPEWDLGVQIIPSEDENKYEFDLLDPTKLVPEELVPVTIIGRMVLNKNPDNFFAETEQIAFHPGHVVPGIDFTNDPLLQGRLFSYTDTQLSRLGSPNFHEIPINRSVAPVHNNQRDGHMRQEINTGRVSYHPNSLGGGCPYQAKIAEGGFASFNERIDAHKIRERSESFNDHFGQAKLFFNSQTPAEKSHIVKALRFELGKVETTAIRIRMLGLLSQVDQELAEKVAIGLGATVPPVLEKPLNHGVSPENENGKQESTTVEQSVKSSDALSMLKNPVNSPTIASRKVAIICADGVSEAAVSNMKKALLQEDAKGCIVAPHLGAVISDTDGEIHADFSFLTASSVLFDAVYIPDGVGLTVLAESDEVNEFLSDAYKHCKVIGADGRAVSILSAANFASKITNDDEGLIVTKEAASEKFAKDFIQAMGKHRFWEREPNLYN
-</t>
-  </si>
-  <si>
-    <t>FjKat01_Catalase</t>
-  </si>
-  <si>
     <t>6280|PEspKat01|</t>
   </si>
   <si>
@@ -435,42 +262,18 @@
     <t>Pedobacter sp. BAL39</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6280|PEspKat01| [Pedobacter_sp._BAL39]|Bacteroidetes/Chlorobi|Catalase|complete|
-MAKKQTPPKEGTEAVIDKKLTPQPENIKTEKLEPHTATATGAPMTTNHGVKINDDQNSLKAGERGATLLEDFILREKITHFDHERIPERIVHARGSGAHGIFKLYESQSAFTKAAFLNDTTVETPVFVRFSTVAGSRGSTDLARDVRGFAVKFYTEEGNFDLVGNNMPVFFIQDAIKFPDLIHAVKPEPDNEIPQAASAHDTFWDFISLMPESAHMIMWAMSDRALPRSYRMMEGFGVHTFRLINETNESFFVKFHWKPLLGVHSVAWDEAQNISGKDPDFHRRDLWDAIEAGAFPEWELGLQIIPEADEFKFDFDLLDPTKLIPEELVPVQRIGKMTLNRNPDNFFAETEQVAFHVGHIVPGIDFSNDPLMQGRLFSYTDTQLIRLGGPNFHEIPINRPIIPVHNNQRDGHMRQTINRGKTSYSPNTLGDNDPAQVKVADGGFSSYQERIDAKKVRARSKSFFDHFSQARLFLNSQSAPEKNHLIDALTFELGKVKTVAIRERMLGILSQIEEQLAKQVAYGLGLSVPKKPEQPMNKSIPADGDPADYQPLIVESKLKKSEALSMANTVKDSIKSRKIAVLAADGVNSSSVTHLKSALEGAGAVVEIIAPRLGFISGTDGDKINVDQSFLTAASVLFDAVYVPGGTDSVAAVAAEANAIHFLNEAFKHCKAIAADESALPVLKVTYFHDKLPKDKNAAGQTKDGIIVGTDPAKLGKEFIEAIAQHRFWEREPARLVPA
-</t>
-  </si>
-  <si>
-    <t>PEspKat01_Catalase</t>
-  </si>
-  <si>
     <t>6255|CatCP01|</t>
   </si>
   <si>
     <t>CatCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6255|CatCP01| [Croceibacter_atlanticus]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MDNNNSNVWDINDPSAVAKCPFLGGAQSNTAGHGTTNRDWWPNELKLNILRQNSSKSNPMGSDFNYKEAFNSLDYAKLKQDVIHLMTDSQDWWPADYGHYGPFMIRMAWHSAGTYRIGDGRGGASSGTQRFAPLNSWPDNGNLDKARLLLWPIKKKYGNKISWADLMILAGNCALESMGFKTFGFAGGREDIWEPEQDIYWGSETEWLGNEERYADGDLEAPLGAAHMGLIYVNPEGPNGNPDPLGSAKDIKETFGRMAMDDEETVALIAGGHTFGKTHGAADPDKYVGAEPHGAPIEEMSTGWKNTYGTGVLDDTITSGLEGAWTPNPTQWDHDYFEVLLNYDWELSKSLAGAHQWIPTKASNARMAPKAGDANAKQGLMMSTADMALKMDPDYLKISKKFHTDHKAFEDAFARAWYKLTHRDMGPISRYLGPEVPQEELLWQDPLPASNFTPSEEDVNSLKSAIANTELSVSELVSTAWASASTFRGSDKRGGANGSRIRLAPQNRWEVNNPEQLHKVLNVLKGIQNDFNTNGKDVSMADLIVLAGSVGVEKAAEKAGHSVTVPFTGGRTDASQEQTDIDSFGYLEPQADGFRNFIKDNQKAAAEDLLVDRAQLLTLSIPEMTVLVGGLRVLGANYNGSNYGVFTDRKEALTNDFFTNLLDFTYTWKATTDDDTIFEGSDRRTGDKKFEATRADLIFGSNTELRAIAEVYGTEDAEEKFVKDFIDAWTKVMNLDRFDL
-</t>
-  </si>
-  <si>
-    <t>CatCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>6253|GfoCP01|</t>
   </si>
   <si>
     <t>GfoCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6253|GfoCP01| [Gramella_forsetii]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MGNNKSGSEDNHKVWEVNESSKCPFMGGALNKTAGKGTSNRDWWPNQLNLNILRQNSSLINPMDDGFNYAEAFKSLDLNAVKQDIYDLMTNSQDWWPADYGHYGPFFIRMAWHSAGTYRIGDGRGGAGSGQQRFAPLNSWPDNANLDKARLLLWPVKKKYGKNLSWADLLVLAGNCAHESMGLKMFGFAGGREDVWEPAQDVYWGAETEWLNNDERYAGEELENPLGAAHMGLIYVNPEGHNGNPDPVEAASYIRETFGRMAMNDYETVALIAGGHTFGKTHGAADAEEYVEAEPAAAGIESQGLGWKNTFGTGNGADTITSGIEGAWTDTPTKWSNKYFDNLFKYDWECIKGPGGAYQWQPKDNAGAGTVPDAHDPDKKHAPFMLTTDLSLKMDPEYEKISRHFYENPDEFADAYSRAWFKLTHRDMGPIERYLGPEVPKEELLWQDPIPKVDHEIINDSDIASLKNKILNTGLSVQELVTTAWGSASTFRGSDKRGGANGGRIRLAPQNGWEVNNPKQLGKVIDTLEKIQQDFNESQSGSKKVSIADLIVLAGCVGVEKAAKTAGHELKVPFSPGRADASQEQTDVEAFEPLEPNADGFRNYFRNRDHVSASAEELLVDRAQLLTLTVPQMTVLLGGMRAMGANYDGSKKGVFTDRPGQLTNDFFKNILEMGLTWKSSSDSETEFDGSDRKTGDVKWTGSRADLIFGSNSELRAIAEVYGTDDVEAKFVKDFVKAWDKVMNLDRYDLK
-</t>
-  </si>
-  <si>
-    <t>GfoCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>6203|RbCP01|</t>
   </si>
   <si>
@@ -480,28 +283,12 @@
     <t>Robiginitalea biformata</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6203|RbCP01| [Robiginitalea_biformata]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MGKDNQAKSKDIHAHTAQDGQAWDVNESSAANCPFLNGELHQAAGGGTTNRDWWPNSLNLNILRQHSELADPMDKDFNYAEAFKSLDLEAVKKDLRELMTDSQDWWPADYGHYGPFFIRMAWHAAGTYRISDGRGGGGTGAQRFAPLNSWPDNANLDKARMLLWPIKQKYGKKLSWADLLILTGNVAHESMGLPMYGFAGGREDIWQPEEDIYWGSETEWLGNKERYNEDGELERTMGAAHMGLIYVNPEGPNGKPDPEAAAHDIRVTFGRMAMNDYETVALIAGGHTFGKTHGAAPDTEYLEAEPAGANIEMQSLGWKNNFGSGMGSDTITSGLEGAWTDTPIQWSHKYLENLFNYEWELTKSPAGAWQFKPKDGAGAGTVPDAHDPEKKNDPFMLVTDLALRMDPDYEKISRHFLENPEEFKEAYQKAWFKLTHRDMGPKSRYLGPEVPEEDLIWQDPIPAADFDLIDQQDIESLKAEILDSGLTVSQLVGAAWASASTFRGSDKRGGANGGRVRLEPQVQWEVNNPVQLGKVLDGLTKIQKAFNDSQSGNKQVSMADLIVLGGCAAVEKAAKDAGHDIRVPFTPGRTDATQEMTDVEAFDHLRPVADGFRNYQQQKFSARTEELLVDKAQLLTLTAPEMTVLVGGMRALNANYNGSKHGVFTERPEVLTNDFFVNLLDMRTTWKAVSEDEEFFEGRDRKSGNVKWTATRADLIFGSNTELRAIAEVYACSDSGEKFVRDFVKAWDKVMNLDRFELA
-</t>
-  </si>
-  <si>
-    <t>RbCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>5801|PEspCP01|</t>
   </si>
   <si>
     <t>PEspCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;5801|PEspCP01| [Pedobacter_sp._BAL39]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MEKESNDISKCPFHNGSMKHNVGGGGTRNHDWWPNQLKLAILRQHSSLSDPMGEDFDYAEAFEKLDLEAVKQDLHALMTDSQDWWPADFGHYGGLFIRMAWHSAGTYRVGDGRGGAGAGLQRFAPLNSWPDNVSLDKARRLLWPIKQKYGRNISWADLMILTGNIALESMGFKTFGFAGGRADVWEADESVYWGSETTWLGGDLRYAHGSPGVDGGGVLVSDDDADGDVHTRDLEKPLAAVQMGLIYVNPEGPDGNPDPVAAAKDIRDTFGRMAMNDEETVALIAGGHSFGKTHGAAPSDNVGKEPEAVDLDMQGLGWNNSYGSGKGPDTITSGLEVTWTTTPTQWSNNFFENLFGFEWQLSKSPAGAHQWVAKNAEPIIPDAYDSTKKHWPTMLTTDLALRFDPSYEKISRRFLENPDAFADAFARAWFKLTHRDMGPRARYLGPDVPEEILMWQDPIPAVDHTLVSDADVAALKAKVLESGLSVSELVSTAWASASTFRGSDKRGGANGARIRLAPQKYWQVNNPSQLQRVLDVLEGIQAAFNAAPEDGRKISLADLIVLAGTAAVEKAAKDAGHDVTVPFSAGRMDASQEQTDVESFGYLEPAADGFRNYRRSKVPVSTEELLIDKAHLLTLTAPELTVLVGGLRVLNINFDGSRHGAFTARPGILSNDFFVNLLDMATVWKAASPDKEVYEGSDRNTGALKWTGTRADLVFGSNSELRAIAEVYASADSQDKFIHDFVAAWNKVMNLDRFDLN
-</t>
-  </si>
-  <si>
-    <t>PEspCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>5352|AlmacCP01|</t>
   </si>
   <si>
@@ -511,14 +298,6 @@
     <t>Algoriphagus machipongonensis</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;5352|AlmacCP01| [Algoriphagus_machipongonensis]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MEKHHSHSNGSSFETNSEGGKCPFTGGTMQHSAGGGTRNRDWWPNSLNLGILRQHSSLTNPMDKDFNYAEEFKTLDLETVKKDIVETLTTSQDWWPADFGHYGPFMIRMAWHSAGTYRIADGRGGGGAGAQRFAPLNSWPDNANLDKARLLLWPIKQKYGRKLSWADLMILAGNCALESMGLKTFGFGGGREDIWEPEEDVYWGSEGEWLGDKERYSGDRELENPLGASHMGLIYVNPEGPEGKPDPIGAARDIRETFGRMAMNDYETVALIAGGHTFGKTHGAGDADKYVAAEPAGAPIEEMSLGWKNTLGKGNAEDTITSGIEVTWTTTPTQWSNNFFENLFGYEWELTKSPGGAHQWRPKDGGGAGTVPDAHIPGKKHAPAMLTTDLALKFDPEYEKISRHFYENPDEFADAFARAWFKLTHRDMGPLALYLGPEVPKEELIWQDPIPKVNHKLVEASDIASLKAKILDAGLSVSELVSTAWASASTFRGGDKRGGANGARIRLEPMKNWEVNNPSQLSKVLKTLEGIQSDFNASQSDGKKVSLADLIVLGGCAAVEKAAKAGGHDIEVSFSPGRSDASQEQTEIESFDALEPAADGFRNYYKPKHKASAEELLVDKAQTLTLTAPEMTVLVGGMRVLKANFDNSKHGVFTSTPGSLTNDFFKNVLDLNTTWSATTDSQSIFVGSDRKTGEPKWTGTRVDLIFGSNSELRALSEVYACADSDKKFVKDFVAAWNKVMNLDRFDLK
-</t>
-  </si>
-  <si>
-    <t>AlmacCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>4698|ChAhpC|</t>
   </si>
   <si>
@@ -534,14 +313,6 @@
     <t>AhpC like peroxiredoxin</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4698|ChAhpC| [Cytophaga_hutchinsonii]|Bacteroidetes/Chlorobi|AhpC_like_peroxiredoxin|complete|
-MQNRILSVGSAFPAFKKTAVVSIEKGKEFTEISSENLVNEDNQWTVMFWWPKDFTFVCPTEIAEFNNAFGDFRDRDTTLIGASTDSEFVHAAWRRDHEDLRGLKFPMLADTSKSLAEELGILEAAEKVALRATFIIDPQGIIRWVSVNDLNVGRNVKEVIRVLDALQTDELCPCNWEKGQETIHA
-</t>
-  </si>
-  <si>
-    <t>ChAhpC_AhpC like peroxiredoxin</t>
-  </si>
-  <si>
     <t>NP_010741.1</t>
   </si>
   <si>
@@ -557,42 +328,18 @@
     <t>1-Cysteine peroxiredoxin</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4697|Ch1CysPrx| [Cytophaga_hutchinsonii]|Bacteroidetes/Chlorobi|1-Cysteine_peroxiredoxin|complete|
-MSLRLGDIAPDFKADTTEGPISFHEWLGDKWGVLFSHPADYTPVCTTELGATAKLKSEFEKRNVKVAALSVDGLESHKGWIKDINETQNTTVNFPIIADEDRKVAELYDMIHPNASEKFTVRSLFIIGNDKKIKLIITYPASTGRNFTEILRVIDSLQLTANYSVATPANWKDGEDVVITPAVKDEDIAAKFPKGYTRVKPYLRTTPQPNK
-</t>
-  </si>
-  <si>
-    <t>Ch1CysPrx_1-Cysteine peroxiredoxin</t>
-  </si>
-  <si>
     <t>4696|Fj1CysPrx|</t>
   </si>
   <si>
     <t>Fj1CysPrx</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4696|Fj1CysPrx| [Flavobacterium_johnsoniae]|Bacteroidetes/Chlorobi|1-Cysteine_peroxiredoxin|complete|
-MSTLRLGDIAPDFHAETTQGPINFHEWLGDSWGVLFSHPADFTPVCTTELGTVANYVPEFTKRNTKVIALSVDGLDSHKEWIKDINETQNTEVNFPIIADEDKKVANLYDMLHPNASDKFTVRSVFVIGPDKKIKLTLTYPASTGRNFDELLRVIDSLQLTANYSVATPANWKDGEDVVIAPAIPDSDIPAKFPKGHKPIKPYLRLTPQPNK
-</t>
-  </si>
-  <si>
-    <t>Fj1CysPrx_1-Cysteine peroxiredoxin</t>
-  </si>
-  <si>
     <t>4523|GfoAhpC|</t>
   </si>
   <si>
     <t>GfoAhpC</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4523|GfoAhpC| [Gramella_forsetii]|Bacteroidetes/Chlorobi|AhpC_like_peroxiredoxin|complete|
-MALVGRKFPNLSVDAMNEMGDTFKLNILEEAQKNNKKVLLFWYPKDFTFVCPTELHAFQNAMEEFEKRNVMVVGASCDTPEVHFAWLNTPKDNGGIEGVKYPILADSNRNLSSRLDILDIMSETYDDETGAITLEGDNVTYRATYLIDEEGTVFHEGVNHMPLGRNVNEFLRLIDAYTHVQEKGEVCPANWEEGKEAMNADREGVASYLSLN
-</t>
-  </si>
-  <si>
-    <t>GfoAhpC_AhpC like peroxiredoxin</t>
-  </si>
-  <si>
     <t>4518|BtheBCP|</t>
   </si>
   <si>
@@ -605,17 +352,6 @@
     <t>Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
   </si>
   <si>
-    <t>Filippo Passardi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;4518|BtheBCP| [Bacteroides_thetaiotaomicron]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MKNIGDKAPEVLGINEKGEEIRLSAYKGKKIVLYFYPKDSTSGCTAQACSLRDNYSELRKAGYEVIGVSVDSEKSHQKFIDKNNLPFTLIADTDKKLVEEFGVWGEKKLYGRAYMGTFRTTFLINEEGIIERIITPKEVKTKEHASQILNQ
-</t>
-  </si>
-  <si>
-    <t>BtheBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>NP_012255.3</t>
   </si>
   <si>
@@ -628,14 +364,6 @@
     <t>Bacteroides fragilis</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4517|BfrBCP| [Bacteroides_fragilis]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MNVGDKAPELLGINEKGEEVRLNNYKGRKIVLYFYPKDNTSGCTAQACSLRDNYAELRKAGYEVIGVSVDNEKSHQKFIEKNNLPFTLIADTDKKLVEQFGVWGEKKLYGRAYMGTLRTTFLINEEGVIERIIGPKEVKAKEHASQIL
-</t>
-  </si>
-  <si>
-    <t>BfrBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4442|Ptor1CysPrx|</t>
   </si>
   <si>
@@ -645,73 +373,30 @@
     <t>Psychroflexus torquis</t>
   </si>
   <si>
-    <t>Nicolas Rouhier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;4442|Ptor1CysPrx| [Psychroflexus_torquis]|Bacteroidetes/Chlorobi|1-Cysteine_peroxiredoxin|complete|
-MAHLRLGDIAPDFTAETTEGNISFHDWLGDQWGIIYSHPADFTPVCTTELGRTAQLKDEFDKRHVKVIALSVDPLKDHHEWIKDINETQNTTVNFPIIADSDRKVAELYDMIHPNASEKATVRSVFIVGPDKKIKLTLTYPASTGRNFDELLRVIDSLQLTANKKLATPADWKPGQDAIISPSVSDEEAKEQFPKYKAIKSYLRTTPTEK
-</t>
-  </si>
-  <si>
-    <t>Ptor1CysPrx_1-Cysteine peroxiredoxin</t>
-  </si>
-  <si>
     <t>4435|Gfo1CysPrx|</t>
   </si>
   <si>
     <t>Gfo1CysPrx</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4435|Gfo1CysPrx| [Gramella_forsetii]|Bacteroidetes/Chlorobi|1-Cysteine_peroxiredoxin|complete|
-MSELKLGDKAPNFDAETSDGKINFHDYLGDSWGILFSHPADYTPVCTTELGTVANYKAKFKERDVKVIALSVDGLKSHEGWIKDINETQNTTVNFPIIADEDRKVSDLYGMIHPKADDTLTVRSVFVIAPDKSIKMTLTYPASTGRNFDELLRVIDSLQLTAYNKVATPANWKQGEDVVISPSVSNEEADKMFPKGYKVVKPYLRTTSQPELKK
-</t>
-  </si>
-  <si>
-    <t>Gfo1CysPrx_1-Cysteine peroxiredoxin</t>
-  </si>
-  <si>
     <t>4398|PtorBCP02|</t>
   </si>
   <si>
     <t>PtorBCP02</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4398|PtorBCP02| [Psychroflexus_torquis]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MLYFYTKIGIMTTLKAGDKAPNFEAKDQDGNIHSLKDYEGKKLVVFFYPKASTPGCTAEACNLRDNWKALQAQGYYILGVSADSQKRQQNFKNKYELPFPLLADEDKSVIEAFGVWGPKKFMGKEYDGIHRTSFIIDENGVLDEVITKVKTKTHAEQIL
-</t>
-  </si>
-  <si>
-    <t>PtorBCP02_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4395|FjBCP02|</t>
   </si>
   <si>
     <t>FjBCP02</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4395|FjBCP02| [Flavobacterium_johnsoniae]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MTTLKAGDKAPNFSGTDQDGKTHKLADYAGKKLVVFFYPKASTPGCTAEACDLRDNFERFKANNYELLGVSADSQKAQSKFKDKYEFPFPLIADEDKAVINAFGVWGPKKFMGKEYDGIHRTTFVIDEKGIIEEVIEKVKTKEHASQILK
-</t>
-  </si>
-  <si>
-    <t>FjBCP02_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4394|ChBCP|</t>
   </si>
   <si>
     <t>ChBCP</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4394|ChBCP| [Cytophaga_hutchinsonii]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MTLTAGDKAPVFKGTDQDGNTISLKDFAGKKVVLYFYPKDNTPGCTKQACDLRDNYNALLKAGYVVIGVSTDSEKSHQKFIKKFELPFPLIADEDKTIHEQYGVWGEKSMYGKTYMGTLRTTFVIDEKGKIEEVISKVKTDDHTAQILK
-</t>
-  </si>
-  <si>
-    <t>ChBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4393|CchBCP|</t>
   </si>
   <si>
@@ -721,14 +406,6 @@
     <t>Chlorobium chlorochromatii</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4393|CchBCP| [Chlorobium_chlorochromatii]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MATSLLSVGTAAPEFSALDQNGQSVSLTEYRGRKVILYFYPKDDTPGCTKEACAFRDNFPTFNAIGVEVLGVSIDDGAKHKKFVEKYQLPFRLVADPDKTIVQAYGVWGLKKFMGKEYMGTNRVTYLINEEGVIEKVWPKVSPEKHAQELIAYLQPSA
-</t>
-  </si>
-  <si>
-    <t>CchBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4392|CphBCP_BS1|</t>
   </si>
   <si>
@@ -738,14 +415,6 @@
     <t>Chlorobium phaeobacteroides</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4392|CphBCP_BS1| [Chlorobium_phaeobacteroides]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MEVLEPGTPAPPFESIDQNGKTVTLEEYRGRKVILYFYPKDDTPGCTKEACAFRDNFPKFKKIGVEVLGVSIDSEKRHKKFVDKYELPFRLVVDEDKKIVQDYGVWRLKKFMGREYMGTARVTYLIDEHGSIQHVWPKVKPADHALELLEYIENAG
-</t>
-  </si>
-  <si>
-    <t>CphBCP_BS1_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4391|PaeBCP|</t>
   </si>
   <si>
@@ -755,14 +424,6 @@
     <t>Prosthecochloris aestuarii</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4391|PaeBCP| [Prosthecochloris_aestuarii]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MKLLAHGDPAPLFESVDQDGQPVKLVDYKGKKVILYFYPKDDTPGCTKEACAFRDNFPKFKEIGVEVLGVSVDSEKRHKKFTEKYDLPFRLVVDEEKTIVEHYGVWGLKKFMGREYMGTARVTYLINEEGVIDMVWPKVKPEKHASEIVAYLEQNN
-</t>
-  </si>
-  <si>
-    <t>PaeBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4389|CphaBCP|</t>
   </si>
   <si>
@@ -772,14 +433,6 @@
     <t>Chlorobium phaeovibrioides (Prosthecochloris vibrioformis)</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4389|CphaBCP| [Chlorobium_phaeovibrioides_(Prosthecochloris_vibrioformis)]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MALLKEGGTAPDFTGIDQHGKSVSLSEYRGSKVLIYFYPKDDTPGCTAEACAFRDNLPNFNKLGVTVLGVSTDPEAKHRKFADKYSLPFRLVADSDKVIVQAYGVWGPKKFMGKEYMGTSRVSYMIDEDGLIAKVWPKVKPAVHPEEVLGWLQANK
-</t>
-  </si>
-  <si>
-    <t>CphaBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4388|PphBCP|</t>
   </si>
   <si>
@@ -789,14 +442,6 @@
     <t>Pelodictyon phaeoclathratiforme</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4388|PphBCP| [Pelodictyon_phaeoclathratiforme]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MPMSILQEGIPAPAIAAKDQDGKLVTLEEYRGRKVVLYFYPKDDTPGCTKEACAFRDNFPKFNSAGVEVLGVSIDDEGKHKKFSEKYQLPFRLVSDPDKRIVEAYGVWGLKKFMGREYMGTARVTYLINEEGIIEHVWPKVTPAQHAEELLNYLQQKT
-</t>
-  </si>
-  <si>
-    <t>PphBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4387|CfeBCP|</t>
   </si>
   <si>
@@ -806,14 +451,6 @@
     <t>Chlorobium ferrooxidans</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4387|CfeBCP| [Chlorobium_ferrooxidans]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MAISILEEGTSAPAISALDQDGKPVTLEEYRGRKVILYFYPKDDTPGCTKEACAFRDNFPNFKALGVEVLGVSVDSEKKHKKFEEKYQLPFRLVADPEKSIVEAYGVWGQKKFMGREYMGTSRVTYLINEEGKIEKVWPKVNPSEHAEELLNYLQKKT
-</t>
-  </si>
-  <si>
-    <t>CfeBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4385|PlutBCP|</t>
   </si>
   <si>
@@ -823,14 +460,6 @@
     <t>Pelodictyon luteolum (Chlorobium luteolum)</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4385|PlutBCP| [Pelodictyon_luteolum_(Chlorobium_luteolum)]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MTLLEPGTPAPPLYGRDQDGREVKLEEYLGKKVLIYFYPKDDTPGCTAEACAFRDNLPNFNTVGVEVIGVSVDPQARHRKFVDKYSLPFRLLADEEKKTVEAYGVWGQKKFMGREYMGTSRVSYLVDEQGRIEKVWPKVKAADHPLEVLEWLETKH
-</t>
-  </si>
-  <si>
-    <t>PlutBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4384|CliBCP|</t>
   </si>
   <si>
@@ -840,42 +469,18 @@
     <t>Chlorobium limicola</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4384|CliBCP| [Chlorobium_limicola]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MALLEIGAEAPPITADDQYGKPVTLDAYRGKKVVLYFYPKDDTPGCTKEACAFRDNLPKFQETGIEVLGVSIDSKAKHSKFAEKYDLPFRLVADEEKRVVEAYGVWGKKKFMGKEYMGTNRVTYLIDEQGMIEKVWPKVTPAVHAEEILDYLGQQT
-</t>
-  </si>
-  <si>
-    <t>CliBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4383|CphBCP_DSM266|</t>
   </si>
   <si>
     <t>CphBCP_DSM266</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4383|CphBCP_DSM266| [Chlorobium_phaeobacteroides]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MSLLQEGSVAPPITTIDQHGKNVTLHEYKGKKVVLYFYPKDDTPGCTKEACAFRDNLPNFNNLDAEILGVSVDSVEKHKKFAEKYTLPFRLLVDDEKKIVQDYGVWGLKKFMGKEYMGINRVTYLINEEGVIEKVWPKVSPAGHAEEILNYLQQKT
-</t>
-  </si>
-  <si>
-    <t>CphBCP_DSM266_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4367|GfoBCP02|</t>
   </si>
   <si>
     <t>GfoBCP02</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4367|GfoBCP02| [Gramella_forsetii]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MTTLKEGDKAPDFKAEDQDGNEIKLSDYKGKKLVLFFYPKASTPGCTAEACNLSDNYDAMKKKGYEILGVSADSKKRQQNFKNKYDFKYPLLADEEKEVINAYGVWGPKKFMGKEYDGIHRTTFIINEEAKIEEVIKKVKTKAHAEQILEN
-</t>
-  </si>
-  <si>
-    <t>GfoBCP02_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4350|CteBCP|</t>
   </si>
   <si>
@@ -885,42 +490,18 @@
     <t>Chlorobium tepidum</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4350|CteBCP| [Chlorobium_tepidum]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MALLQAGQKAPEFTAKDQDGKEVSLRDYTGRKVVLYFYPKDDTPGCTKEACAFRDNLPNFEKVDAVVLGVSVDGQKAHRKFADKYELPFTLLVDDEKKIVEAYGVWGLKKFMGREYMGTNRVTYLIDEQGTIEKVWSKVKPETHTAEVLDWLQQKT
-</t>
-  </si>
-  <si>
-    <t>CteBCP_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4327|PtorBCP01|</t>
   </si>
   <si>
     <t>PtorBCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4327|PtorBCP01| [Psychroflexus_torquis]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MSIEKGDSIPSFQLNDQNGIVFNSDDVIGKKPVVIYFYPKNFTPGCTKEACSFRDSYEDFKEIGAEVVGISGDSEKSHAKFTAKYNLPFILLADSTGKVRKKFGIKKSLLGLVPGRETFVIDAQGKLIFKFNSLDASQHMKKALKAIKKIN
-</t>
-  </si>
-  <si>
-    <t>PtorBCP01_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>4326|GfoBCP01|</t>
   </si>
   <si>
     <t>GfoBCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4326|GfoBCP01| [Gramella_forsetii]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MKIGDEVPDLELKNQNGEKFRFSELKGKKAFVVYFYPKDFTPGCTKEACSFRDSYEDFKELGAEVIGISGDSSKSHSKFIDRYKLPYIFLSDKDKKARNVFGVKPSLLGLLPGRETFVFDKNGKLLHRFNSMSAGRHMPEALAVLKKNQN
-</t>
-  </si>
-  <si>
-    <t>GfoBCP01_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>NP_009803.3</t>
   </si>
   <si>
@@ -930,115 +511,48 @@
     <t>FjBCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;4319|FjBCP01| [Flavobacterium_johnsoniae]|Bacteroidetes/Chlorobi|Atypical_2-Cysteine_peroxiredoxin_(type_BCP)|complete|
-MSLKIGDIVPNFTAKDSHGEVFESKNVLGRKPLVIYFYPKDNTPGCTTEACSFRDQYEDFKDLGAEVIGISADSVKSHHKFANKHQLPFILLSDEDKRLRHLFGVKNNLFGLIPGRVTFIIDRNGVVIYIFDSMNAAKHIPKALEIIKELVL
-</t>
-  </si>
-  <si>
-    <t>FjBCP01_Atypical 2-Cysteine peroxiredoxin (type BCP)</t>
-  </si>
-  <si>
     <t>3650|CphCP01_BS1|</t>
   </si>
   <si>
     <t>CphCP01_BS1</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3650|CphCP01_BS1| [Chlorobium_phaeobacteroides]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MSEHSRCPVTGRTAGNPVAGGGIANRDWWPNQLHLDMLHQHSSLSNPMEEAFKYKEEFGKLDLKAVKKDLYTLMTDSQEWWPADYGHYGGLFIRMTWHSAGTYRTGDGRGGGGTGNQRFAPLNSWPDNANLDKARRLLWPIKQKYGKKLSWADLMILAGNYALESMGFKTFGFGGGRVDIWEPEEDIYWGKEVEWLDNKRYSGERDLENPLAAVQMGLIYVNPEGPDGKPDPVAAGKDIRETFGRMAMNDEETVALVAGGHTFGKCHGVGDPKLVGPEPEAADIEEQGLGWKSGYGSGKGDETMTSGLEGAWTPDPIHWDMGYLGMLFKYEWELTKSPAGAWQWKPTDVAEEDLAPAAHDPSKRVPTMMTTADLAMRMDPIYGPISRRYYEHPDQFADAFARAWFKLTHRDMGPKSRYLGTEVPEEDLIWQDPVPAVDHELIGDREIAELKKRLLASGLSIPELVSTAWASASTFRGSDKRGGANGARIRLAPQKDWEVNQPEQLKIVLQKLEEIRQEFNDAQSGGKRVSLADLIVLGGCAGVEEAARKAGTDVTIPFTPGRTDASQEQTDTESFAVLEPLADGFRNYMKKKYSVSAEEMLVDRSQLLTLTAPEMTVLVGGLRVLNVNFGQSPHGVFTTLPETLTNDFFVNLLDMGTEWKPLSKEHDTFEGRDRKTGEPRWTATRVDLIFGSNSRLRAIAEVYGSDNAQEKFVHDFVAAWNKVMNLDRFELG
-</t>
-  </si>
-  <si>
-    <t>CphCP01_BS1_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>3617|FjCP01_UW101|</t>
   </si>
   <si>
     <t>FjCP01_UW101</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3617|FjCP01_UW101| [Flavobacterium_johnsoniae]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MENQSNDISKCPFHNGSMDNQAASGTKNNDWWPKQLKVNILRQNSSLSNPLSKDFDYAEAFKTLDLEAVKKDLHVLMTDSQDWWPADFGHYGGLFIRMAWHSAGTYRVHDGRGGAGAGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGQKISWADLMILTGNVALESMGFKTFGFAGGRADVWEPDESVYWGSETTWLGGDERYNNGSDGVPKDHGVVSADDDADGKVHSRNLEKPLAAVQMGLIYVNPEGPDGNPDPILAAKDIRDTFGRMAMNDEETVALIAGGHTFGKTHGAASSDHVDKEPEAAGLELQGFGWKNSFGSGKGADAITSGLEVTWTKTPTQWSNNFFENLFAFEWELSKSPAGAHQWVAKNAEAIIPDAFDSTKKHLPTMLTTDLSLRLDPEYEKISRRFLENPDQFADAFSRAWFKLTHRDMGPRARYLGPDVPQEVLLWQDPIPEVNHKLIDENDIKQLKEKILNSGLSISQLVAAAWASASTFRGSDKRGGANGARVRLAPQKDWEVNNPAKLAQVLSKLETIQTEFNASQNDGKKVSLADLIVLAGSAGVEKAAKDAGSSVTVSFNPGRMDASAEETDVESFGYLEPKADGFRNYRKTKSAVSTEELLIDKANLLTLTAPELTVLLGGLRVLDINADGSKNGVFTHRPGQLTNDFFVNLLDMNTQWQAVSNDKELYAGNDRSTGQPKWIATRADLVFGSNSELRAVAEVYASTDANEKFVNDFIKAWTKVMNLDRFDLA
-</t>
-  </si>
-  <si>
-    <t>FjCP01_UW101_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>3613|PtorCP03|</t>
   </si>
   <si>
     <t>PtorCP03</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3613|PtorCP03| [Psychroflexus_torquis]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MKKLLIAAFSLFVVVAFAQQSTEPEYKTCPVTGIRIKVKDGENPHAKMQDKSSVTEEMTPKRMGNKDWWPNSLDLSVLRQHSQKSNPMGEDFDYRAAFKALDYGALKTDLVALMKDSKEWWPADYGHYGPFFIRMSWHSAGTYRTADGRGGSRDGQQRFAPINSWPDNANLDKARRLLWPIKQKYGKSISWADLMILAGTLAYEDMGLEIAGFSGGREDTWEPSSNVYWGAENEMLANDKRYDDNGDIEQPLAAVQMGLIYVNPEGPDGNPDPALAADGIRQTFGRMGMNDKETVALIAGGHTIGKTHGAGDASLGPAPEAASIQEQGLGWMSSYKSGKAEDAITSGLEVIWTNTPAEWSQGYFKSLFENEWELTKSPGGAYQWVAKDSKEIYPDAHIEGKKHRPTMLTTDLTMIKDPDYLKISKFFYENPEEFNKTFAQAWFKLTHRDMGPKSTYIGPDAPKEDFIWQDPIPKAKYEMVNAADIKALKAEILKSGLNTSELVETAWTSASTYRDSDRRGGANGGHILLEPQRSWEANNPKQLDKVASKLTMIQKDFNKKYNNKEVSMADLIVLGGNVAIEQAAKKAGHTIEVPFMPGRTDALQEQTDVESMQLLKPMADGFTNYQGKQYTLTTEELLVDKAQLLTLTAPEMTVLIGGMRALGANHGNAQHGVFTDRPGELTTDFFVNLLDMSHKWEPKDDKEQVFISKNRQTGDTKWTATRADLIFGSNSELRALAEVYATEDADEKFVTDFVSAWSKVMQLDRFDVKM
-</t>
-  </si>
-  <si>
-    <t>PtorCP03_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>3611|PtorCP02|</t>
   </si>
   <si>
     <t>PtorCP02</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3611|PtorCP02| [Psychroflexus_torquis]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MEDTKSLKDGSKAKVGNVNSSPASCPFLNGEMKGAAGSGSDNRDWWPNSLNINILRQNSSMASPMDEDFDYAEEFKTLDLKTVKEDLKELMTTSQEWWPADYGNYGPFFIRMAWHAAGTYRIQDGRGGAGTGSQRFAPLNSWPDNANLDKARLLLWPIKEKYGRKLSWADLIVLTGNVAHESMGLEMQGFGGGREDIWQPEEDVYWGSEKEWLDNDERYSEGELENPLGASHMGLIYVNPEGPNGKPDPIGAAHDIRVTFGRMAMNDYETVALIAGGHTFGKTHGAANDLEYVDSEPAGAPIEMQSMGWKNNYKSGKGEDTITSGLEGAWTDTPTKWSHKYFENLFKYDWELTKSPAGAHQWKPKDNEGAGTIPDAHNPTKKHAPFMLTTDIALKEDPAYEKVSKHFYENPDEFAEAYSKAWFKLMHRDMGPINRYLGPDVPKKQEKWQDPIPAVDHELINDKDGAELKSKILNTELSISELVSTAWASASTFRHSDKRGGANGAHIRLEPQRNWAVNSPKQLSKVLEVLTKIQSEFNTLQKGNKKVSMADLIVLGGNAAIEEAAEAGGNYIQIPFYPGRTDALKEQTEIDSFGALEPMADGFRNYSKGYPKVTDEELLIDKANLLTLTAPEMTVLIGGMRALNTNYNHSKHGVFTTRQGVLTNDFFTNLLDLGTTWKSSNDEQTLFEGSDRKTGEIKWTGTRADLIFGSNSELRALAEVYGSSDSQKKFVKDFAFAWNKVMNLDRYDLHQI
-</t>
-  </si>
-  <si>
-    <t>PtorCP02_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>3610|BBFL7CP02|</t>
   </si>
   <si>
     <t>BBFL7CP02</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3610|BBFL7CP02| [Flavobacteria_bacterium_BBFL7]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MDSSNNTKVWDINQSEAASKCPFMGGASPNTAGRGTRNKDWWPNQLRLNVLRQNAPKSDPMDPDFNYEEAFKSLDMNALRKDLTALMTDSQDWWPADYGHYGGFFVRMAWHSAGTYRVGDGRGGSCSGSQRFAPLNSWPDNGNLDKARLLLWPIKQKYGKSISWADLMILTGNIAMESMGLKKLGFAGGREDIWEPEQDIYWGSETEWLGNDARYENGELEGMLGAAHMGLIYVNPEGPNGKPDPVGSAHDIRETFGRMAMNDYETVALIAGGHTFGKAHGASDPEKYMGPEPAGARIEEMSTGWNSSYGTGHGDDTTTSGLEGAWTPNPDQWDYDYFRVLLDYEWELTKSPAGAHQWRPTDASNADRAPMAVDASKRQDLMMSTADIALKTDPEYLKISQHFRENPDEFEDAFAKAWFKLTHRDMGPTTRYLGNDIPEKEELWQDPIPSVTHELINDEDVASLKSQILDSGLTIQELVSVAWASASTYRDSDKRGGANGSRIRLAPQNQWEANNPKQLHKVLDVLDKIQGDFNNSQSGDKQVSMADLIVLGGNAAIEKAAKDAGHNVTVPFNAGRADATQEQTDIESFTYLEPRADGFRNFLGSEQKAAGEDLLVDRANLLSLSVPEMTVLVGGLRAMNANYDQSDYGIFTDRPGLLTNDYFVNVLDLSTKWQSKSSADLLFEGRNRKTGDLKWIGTRVDLIFGSNTELRAIAEVYASHDSKNKFIADFIAAWHKVMNLDRFDLK
-</t>
-  </si>
-  <si>
-    <t>BBFL7CP02_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>3590|BBFL7CP01|</t>
   </si>
   <si>
     <t>BBFL7CP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3590|BBFL7CP01| [Flavobacteria_bacterium_BBFL7]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MLSKYYQMKNLLLYSSITIIALAGLFGGYYYTFHMNKPTDVATASKAECPLGFGSTKSAGSMTKGEGKTNQQWYPNSLDLSVLRQNSDMSNPLGEEFDYKKEFESLDYDALKKDIELALTDSKDWWPADFGNYGGLFIRMAWHSAGTYRTGDGRGGTREGKQRFAPQNSWADNANLDKARRLLWPVKQKYGQKISWADLMILAGNVSFENMGFETLGYAGGREDTWEPQNNVYWGSESEMLGDERFNEDRELETPLAASQMGLIYVNPEGPNGNPDPVLAAHDIRQTFGRMGMNDEETVALIAGGHTLGKTHGASSGENLGAAPEGAAIEDQGMGWKSAHKSGKGADAVTSGLEVTWTNTPTQWGIGYFKSLFEHEWKLTKSPGGAHQFEAVNPKKMYPHAFDKDKQVAPTMLVTDLSLIKDPAYLKISKRFYENPEEFDAAFAKAWFKLTHRDMGPSSTYLGPEVPQEQFIWQDPIPARDYKLVSTSDINTLKGKIKASGLTTNELVTTAWNAASTYRHGDRRGGANGGRIQLEPQVNWDSNNPTQLKKVLNVYRDIKNDFDTSSRKISMADLIVLGGNVAIENAAKKAGYSIDVPFTPGRTDATQDQTDIDGTNLLKPMADGFTNFQQKEYTLTAEQLLVDKAQQLTLSAPEMTVLVGGMRALGANYDGSKTGIMTEQTGTLSNDFFKNLLSMDYSWKPVENNKNLFEIVERNTNNKKWDATRVDLIFGSNSELRALSEVYASEDAKERFVNDFVAAWTKVMNLDRFDLK
-</t>
-  </si>
-  <si>
-    <t>BBFL7CP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>3560|PtorCP01|</t>
   </si>
   <si>
     <t>PtorCP01</t>
   </si>
   <si>
-    <t>partial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;3560|PtorCP01| [Psychroflexus_torquis]|Bacteroidetes/Chlorobi|Catalase_peroxidase|partial|
-MAMNDYETVALIAGGHTFGKCHGAGDDGLVGVGPEDAPMEQQQFGWKSGHGKGKGRDTITSGLEGPWTSNPAQWDNGYFENLFKYEYELVKSPAGAFQWHPKDLEDENYAPDVEDANQKVTTIMLTSDLALREDPEYRKISLNFKNNPEEFADAFARAWFKLLHRDMGPKNRYLGPEVPDEDLIWQDPIPAGNSDYDIEKAKELIRASGLSIQEMVESAWSSASTFRNSDLRGGANGARIRFEPMRSWKSNNKEQLDKVINSLSGIATEVGASVADMIVLAGNVAIEEASGLEVPFRAGRGDALEEKTDSESFKVLEPLADGFRNYQKTEYSVSPEEMLVDKAQLLGLTAPEMTVLVGGMRSLGISKDNMGVFSSNINKLDNDFFKTLLDMNVSWRQSGNNAYEGVDKQTGDVVRTASRVDLVFGSNSQLRSIAEVYAANDAENKFKTDFINAWNKVMNADRFDLDV
-</t>
-  </si>
-  <si>
-    <t>PtorCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>3063|SruCP01|</t>
   </si>
   <si>
@@ -1048,28 +562,12 @@
     <t>Salinibacter ruber</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3063|SruCP01| [Salinibacter_ruber]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MHNGSNGSVEQRDSMPETSREWWPGSLDVEILDQNAQDVGPWNGDFDYAEAFQELDYEALKEDIEEVMTTSKDWWPADYGHYGPLFIRMSWHAAGTYRTTDGRGGSSGGRQRLAPLNSWPDNANLDKARRLLWPVKQKYGRKISWADLLVLAGNVAMESMGFETFGFAGGREDDFKPDESIDWGPEDEMETWGRFNEEDELDNPLGATVMGLIYVNPEGPESTPDPEWSAQRIRKSFGRMAMNDRETAALIAGGHTFGKVHGADTDEHLQAEPEAAPIEQQGLGWHNEHGSGKGGDTITSGIEGPWTDAPTEWDMGYLDFLLDYEWEVHKGPGGAWQWRPKSDELKGVVPDAHDASETVDPMMLTTDVALKRDPDYREIIEDFRENPDAFEDAFARAWFKLLHRDMGPKERYLGPEVPEEDLIWQDPVPDADHDLIGDEEIAELKEAILETDLSVSRLVKTAWASASTYRDSDKRGGANGARIRLEPHRNWEANEPPQLAHALEVLTGIQKNFNDARTDDVRVSLADLIVLGGSAAIEKAAADAGHDVEVPFTPGRTDATQEQTDVEAFEYLEPKADGFRNYIADDPWQDWTPEEFLVDKADLLNLTPAETTVLVGGMRALDATHEQADGYGVFTDRPETLNNDYFVNLLDMGHEWDPVSEDKQHFKIRDRDTGEVKWKATRVDLIFGSNSRFRALSQVYGSGDAEEKFVDDFVDAWTKVMNLDRFDLE
-</t>
-  </si>
-  <si>
-    <t>SruCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>2669|CchCP01|</t>
   </si>
   <si>
     <t>CchCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;2669|CchCP01| [Chlorobium_chlorochromatii]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MNEERKCPITGATHKPSAEKGRSNHDWWPNQLNLKILHQHSALSNPMDKDFNYAEEFKKLDLAAIKQDLYALMTDSQEWWPADYGHYGPLFIRMAWHSAGTYRTSDGRGGAGTGSQRFAPLNSWPDNANLDKARRLLWPIKQKYGRQISWADLMILTGNCALESMGLKTFGFAGGREDIWEPEEDIYWGTEGEWLADKRYSGERELEKPLAAVQMGLIYVNPEGPNGKPDPLAAAKDIRETFARMAMNDEETVALIAGGHTFGKTHGAGDASQVGPEPEAAGIEEQGLGWKNQYGTGKGKDTITSGLEVIWTTTPTKWSNNFFWNLFGYEWELTKSPAGAYQWTPKYGVGANTVPDAHDPSKRHAPAMMTTDLALRFDPDYEKIARRYYENPDQFADAFARAWFKLTHRDMGPRSRYRGAEVPVEELIWQDTIPALDHELIGADEIAALKATILASELSIAQLISTAWASAATFRNSDKRGGANGARLRLAPQKDWEVNQPDELQKVLQVLETIQTEFNASRNDGKKVSLADLIVLGGCAAIEAAAEKAGYKVTVPFTPGRMDATQEETDAHSFAVLEPVADGFRNYLKAKYSFSVEEMLIDKAQLLTLTAPEMTVLIGGMRVLNTNAGHTTHGVFTKRPETLSNDFFVNLLDMGTVWKATSEASDIFEGRNRSTGELQWTATRVDLVFGSNSQLRALVEVYGCKDSQEKFLNDFIAAWNKVMNLDRFDLSGL
-</t>
-  </si>
-  <si>
-    <t>CchCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>2630|LbCP01_MED217|</t>
   </si>
   <si>
@@ -1079,14 +577,6 @@
     <t>Leeuwenhoekiella blandensis</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;2630|LbCP01_MED217| [Leeuwenhoekiella_blandensis]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MENKNGNDHGTDGKVWDVNESAKCPFLSGEMNHVTGQGTTNRDWWPNQLNLSILKQNSSLVDPMDEDFDYAEAFKSLDLAAVKQDLYDLMTNSQDWWPADYGHYGPFFIRMAWHAAGTYRIHDGRGGAGSGQQRFAPLNSWPDNANLDKARLLLWPIKKKYGNKLSWADLLILAGNCAHESMGLNMFGFAGGREDVWEPEEVYWGAETEWLGNKERYEGGELEKALGAAHMGLIYVNPEGHNANPDPVESAHFIRETFGRMAMNDYETVALIAGGHTFGKTHGAADPDEYVEAEPAAAGMEAMGTGWKNNFGSGKGADTITSGLEGAWTDTPTQWSNKYFENLFGYEWELTKSPAGAHQWKPKNDAGAGTVPDAHRADVKHAPFMLTTDLSLRFDPEYEKISRHFMENPEEFADAYSRAWFKLTHRDMGPKERYLGAEVPQEELIWQDPIPAVDHELVSDADVAHLKKNILESGHSISELVSVAWASASTFRGSDKRGGANGARIRFAPQRTWDVNNPEQLDAVLKTLEGIQKSFNDSQSGNKKVSIADLIVLAGSAAVEKAAKNAGHDISVPFTPGRADALEEQTDASAFDALEPVADGFRNYMKDRFEIKAEEFLVDRAQLLTLTPPEMTVLVGGLRVLNTNFDGSDYGVFTDKPETLTNDFFVNLLDMNTTWKAVSEEDELFEGSDRNTGEKKWTGTRVDLIFGSNSELRALAEAYALEDSGERFVKHFVKTWVKVMNLDRYDVK
-</t>
-  </si>
-  <si>
-    <t>LbCP01_MED217_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>2629|TspCP01|</t>
   </si>
   <si>
@@ -1096,14 +586,6 @@
     <t>Tenacibaculum sp.</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;2629|TspCP01| [Tenacibaculum_sp.]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MSNTDNFDINKDTGKCPFLHGTPTKTAGGGTTNRDWWPNELKLNVLRQHASKSNPLGEDFDYAAAFNSLDFNELKQDVLNLMTDSQDWWPADYGHYGGFMIRMAWHSAGTYRVIDGRGGAGSGTQRFAPLNSWPDNGNLDKARLLLWPIKQKYGNKISWADLMILAGNCALESMGFPTKGFAGGREDVWEPEQDIYWGSETEWGANEKRYEDGELESPLGAVMMGWIYVNPEGPNGNPDPLGSAKNVRETFERMAMNDEETVALVAGGHTFGKAHGAADPDKYVGNEPHRGKIEEMSTGWKNSFKSGVLDDTITSGIEGAWTPNPTQWDADYFDVLLNYEWELTKSPAGAYQWTPTAESKAKMAPTAGDPNKKQALMMTTADIALRMDPKYLEISQRFHKDHKAFEEAFANAWYKLTHRDMGPTDRYLGPEVPSEELLWQDPIPKVNYTLSDDDINTLKALISESGLTVSELVKTAWASASTFRGSDKRGGANGGRIRLEPQRNWEVNNPEELEKVLTTYKAIQKKFEGEISIADLIVLGGSVGVEKAVKNAGYNFNVAFTEGRGDATQEQTDLKSFSYLEPIADGFRNYINSDLKMAAEDLLIDKANLLTLSIPEMTVLVGGLRMLSANYDGSNHGVFTDKKETLSNDFFKNILDFSYTWKATNSDEKEFIGRDRKTNALKFTGTRADLIFGSNTELRAVCEVYGAADAEEKFVKDFIAAWTKVMNLDRFDLK
-</t>
-  </si>
-  <si>
-    <t>TspCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>2628|CEsCP01|</t>
   </si>
   <si>
@@ -1113,59 +595,24 @@
     <t>Cellulophaga sp.</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;2628|CEsCP01| [Cellulophaga_sp.]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MKNTETFDLNDPSAIAKCPFLGGAHKQFAGGGTTNRDWWPNELRLNVLRQNATKSDPMGEDFDYAAAFKSLDFTALKKDVIDLMTDSQDWWPADYGHYGGFMIRMAWHSAGTYRIGDGRGGSGSGSQRFAPLNSWPDNGNLDKARLLLWPIKKKYGNKISWADLMILAGNCALESMGFPTFGFSGGREDVWEPEQDIYWGSEVEWGANEARYKDGDLEAPLAAVMMGWIYVNPEGPNGNPDPMGSAANVRETFGRMAMNDEETVALVAGGHTFGKAHGAADPEKYVGTEPHGASIEEMSTGWKNSYKSGVLDDTITSGIEGAWTPNPTQWDADYFDVLLNYDWELTKSPAGAHQWTPTEESNARMAPTAGDASKKQRLMMTTADIALKVDPEYLKISKKFHEDHKAFEDAFARAWYKLTHRDMGPLSRYLGPEMPGEKLLWQDPLPEANGYTLSDAQVEILKSAIADSDLTIAEMVTTAWASASTYRDSDKRGGANGARIALAPQSHWEVNNPEQLNKVLIFLKDIQNTFDGEVSLADLIVLAGSVGIELAAMKAGREITVPFTPGRVDATQEDTDIDSFGYLEPKADGFRNYVQSSQKAQAAETMLVDRAQLLGLSIPEMTVLVGGLRVLGANYDGSKVGVFTDRPGELTNDFFVNLLDFTYTWKALSSDDTLFSGTDRRTGEMKFTGSRADLIFGSNTELRAVAEVYGASDGEDRFVNDFVKAFVKVMDADRFDVK
-</t>
-  </si>
-  <si>
-    <t>CEsCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>2535|PphCP01|</t>
   </si>
   <si>
     <t>PphCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;2535|PphCP01| [Pelodictyon_phaeoclathratiforme]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MSEQGKCPVTGRTAVNPVTTGGMSNRDWWPNQLHLDMLHQHSSLTNPMGEEFRYKEEFKKLDLKSVKKDLYALMTDSQEWWPADYGHYGGLFIRMAWHSAGTYRTSDGRGGGGTGNQRFAPLNSWPDNANLDKARRLLWPIKQKYGRKLSWADLMILAGNCALESMGFKTFGFGGGRVDIWEPEEDIYWGKEVEWLGSNRYSGERDLENPLAAVQMGLIYVNPEGPDGNPDPVAAGRDIRETFARMAMNDEETVALVAGGHTFGKCHGVGDPKLIGPEPEAAEIEEQGLGWKSGYGSGKGDETMTSGLEGAWTPDPIHWDMGYLGMLFKYEWELTKSPAGAWQWKPKDVAEEDLAPAAHDPSKRVPTMMTTADLAMRMDPLYGPIARRYYEHPEQFADAFARAWFKLTHRDMGPRSRYLGAEVPAEELIWQDPVPAVDHELIGEGKIKELKKRILASGLSIPELLSTAWASASTFRSSDKRGGANGSRIRLSPQKEWEVNQPEQLQRVLGKLEEIRNAFNGEQSGGKQVSLADLIVLGGCAAVEEAARRAGNDVTVPFIPGRTDASQEQTDVESFAVLEPLADGFRNYTKRKYSVTPEEMLIDRSQLLTLTATEMTVLLGGLRVLGVNFRQSPHGLFTNRPETLTNDFFVNLLDMGTEWKPLSKEHETFEGRDRKTGEVRWSATRVDLIFGSNARLRAIAEVYGSDDAQGKFVQDFVAAWNKVMNLDRFDLS
-</t>
-  </si>
-  <si>
-    <t>PphCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>2534|PaeCP01|</t>
   </si>
   <si>
     <t>PaeCP01</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;2534|PaeCP01| [Prosthecochloris_aestuarii]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MSEQSRCPVTGRTADSPATGSGLSNRDWWPNQLHLDMLHQHSSLVNPMGEGFRYKEEFGKLDLKEVKKDLYALMTDSQEWWPADYGHYGGLFIRMAWHSAGTYRTSDGRGGGGTGNQRFAPLNSWPDNANLDKARRLLWPIKQKYGKKISWADLMILAGNCALESMGFKTFGFGGGRVDIWEPEEDIYWGKEVEWLGNKRYSGERDLENPLAAVQMGLIYVNPEGPDGKPDPVAAGRDIRETFARMAMNDEETVALVAGGHTFGKCHGVGDPKLVGPEPEAADIEEQGLGWKSGYGIGKGDETMTSGLEGAWTPDPIHWDMGYLGMLFRYEWELTKSPAGAWQWKPKDVAEEDLAPAAHDPSKRVPTMMTTADLAMRMDPIYGPISQRYYEHPDQFADAFARAWFKLTHRDMGPHSRYLGAEVPAEELIWQDPVPALDHDLIDAEEIAELKKRLLASGLSIPELVSTAWASASTFRGSDKRGGANGARIRLAPQKDWEVNQPEQLQRVLHKLEEIRNTFNGEQSGNKQVSLADMIVLGGCAAVEEAAGKAGTGVTVPFTPGRTDALQEQTDTESFSVLEPLADGFRNYMKKKYSVSAEEMLVDRSQLLTLTAPEMTVLLGGLRVLGANFQQSPHGVFTTQPETLTNDYFVNLLDMGTEWKPLSKEQDTFEGRDRKTGEPRWTATRVDLIFGSNSRLRAIAEVYGSDDAQEKFVHDFVAAWDKVMNLDRFDLG
-</t>
-  </si>
-  <si>
-    <t>PaeCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>2369|CphCP01_DSM266|</t>
   </si>
   <si>
     <t>CphCP01_DSM266</t>
   </si>
   <si>
-    <t>Nenad Bakalovic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;2369|CphCP01_DSM266| [Chlorobium_phaeobacteroides]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MSEQSKCPVTGRTAGNPVAGGSMLNRDWWPNQLHLDMLHQHSSLVNPMGDEFRYKEEFRKLDLGAVKKDLYALMTDSQEWWPADYGHYGGLFIRMAWHSAGTYRTSDGRGGGGRGNQRFAPLNSWPDNANLDKARRLLWPIKQKYGKMLSWADLMILAGNCALESMGFKTFGFGGGRVDIWEPEEDIYWGKEVEWLGNNRYSGERDLENPLAAVQMGLIYVNPEGPDGNPDPVAAGRDIRETFARMAMNDEETVALVAGGHTFGKCHGVGDPNLIGPEPEAAGIEEQGLGWKSGYGSGKGDETMTSGLEGAWTPDPIHWDMGYLGMLFKYEWELTKSPAGAWQWKPKDVAEEDLAPAAHDPSKRVPTMMTTADLAMRMDPVYGPISRRYYEHPDQFADAFARAWFKLTHRDMGPKSRYLGAEVPAEDLIWQDPVPAVDHELIGEGEIAELKKRLLASGLPIPELVSTTWASASTFRGSDKRGGANGSRIRLAPQKDWEVNQPEQLQRVLEKLEEIRHAFNGEQSGGKRVSLADLIVLGGCAAVEEAARRAGNDVTIPFAPGRTDASQAETDVESFAVLEPLADGFRNYARQKYSVTPEEMLVDRSQLLTLTATEMTVLLGGLRVLGANFRQSPHGVFTKRHETLTNDFFVNLLDMGTEWKPVSKEHDTFEGRDRKTGEPRWSATRVDLIFGSNARLRAIAEVYGSDDAQEKFVQDFVAAWNKVMNLDRFEIS
-</t>
-  </si>
-  <si>
-    <t>CphCP01_DSM266_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>11348|NsoCP01|</t>
   </si>
   <si>
@@ -1175,14 +622,6 @@
     <t>Niabella soli</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;11348|NsoCP01| [Niabella_soli]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MENDSKDISKCPFHNGTIKENVGGGGTRNRDWWPNQLKVSILRQHAAKSNPMDKDFNYKAAFESLDLAAVKKDLEALMTDSQDWWPADFGHYGGLFIRMAWHSAGTYRVGDGRGGAGTGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGNKLSWADLLVLTGNVALESMGFKTLGFAGGREDVWEPDEDVYWGSETTWLGGDIRYAHGGDPGVEKNGGVVIADDKDTNGTHSRHLEKPLAAVQMGLIYVNPEGPDGNPDPIAAAKDIRDTFGRMAMNDEETVALIAGGHTFGKTHGAAPATHVGKVPEEAGIEEQGLGWSSSFGSGKGADAIGSGLEVTWTQTPTQWDNNFFETLFGFEWELTKSPAGAHQWVAKDADAITPDAFDSAKKHKPTMLTTDLSLRFDPEYGKISKHFLENPDAFADAFAKAWFKLTHRDMGPRARYLGAEVPAEEFIWEDPIPAVDHVLIDSNDIAELKAKVLASGLSIAELVTTAWASASSFRGGDKRGGANGARIRLAPQKDWEVNNPAQLQKVLAVLEGIQKDFNGEQVGAKKVSLADLIVLAGAAAVEKAAKDAGHAVSVSFTPGRMDATQEQTDVDSVAYLETPADGFRNYRKGASVVPTEALLIDKAQLLTLTVPELTVLVGGMRALGATWDGSKHGVFTQRPGQLTNDFFVNLLDMRTAWKASNGSRELFEGSDRTTGATKWTATRADLVFGSNAELRAVAEVYGSADSADKFVNDFVAAWAKVMNLDRFDLA
-</t>
-  </si>
-  <si>
-    <t>NsoCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>11347|FlaspCP01|</t>
   </si>
   <si>
@@ -1192,14 +631,6 @@
     <t>Flavobacterium sp.</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;11347|FlaspCP01| [Flavobacterium_sp.]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MDNQSNDISKCPFHNGSMDKQAASGTKNRDWWPKQLKVNILRQNSVLSNPLDKDFNYAEAFKTLDLDAVKKDLHALMTDSQDWWPADFGHYGGLFIRMAWHSAGTYRVHDGRGGAGAGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGQKISWADLLILTGNVALESMGFKTFGFAGGRADVWEADESVYWGSETTWLGGDERYKDGSEGVPKDHGVVSSDDNADGNIHSRNLEKPLAAVQMGLIYVNPEGPDGNPDPIAAAKDIRDTFGRMAMNDEETVALIAGGHTFGKTHGAASSDHVGKEPEAAGLELQGLGWQNSYGSGKGSDAITSGLEVTWTKTPTQWSNNFFENLFGFEWELSKSPAGAHQWVAKNAEAIIPDAFDPNKKHLPTMLTTDLSLRLDPAYEKISRRFLENPDEFADAFARAWFKLTHRDMGPRALYLGPEVPAEELLWQDPIPEVNHTLINDQDIAQLKERILNSGLTVSQLVSTAWASASTFRGSDKRGGANGGRIRLAPQKDWEVNNPTALKVVLDKLEAIQNEFNTAQNDGKKVSLADLIVLGGSAAVEKAAKDAGASVSVPFAPGRMDASAEQTDVESFGYLEPKVDGFRNYRKTKSSVLTEELLIDKANLLTLTAPELTVLLGGLRVLDINADGSKNGVFTTRPGRLTNDFFVNLLDMNTQWQAVSNDKELYTGNDRSTGQPKWIGTRADLVFGSNSELRAIAEVYAASDAHEKFVHDFIAVWTKVMNLDRFDLKK
-</t>
-  </si>
-  <si>
-    <t>FlaspCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>11346|ChrspCP01|</t>
   </si>
   <si>
@@ -1209,14 +640,6 @@
     <t>Chryseobacterium sp.</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;11346|ChrspCP01| [Chryseobacterium_sp.]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MEKDSNDISKCPFHNGSMKQNVAGGGTQNQDWWPNHLRVDILRQHSSLSDPMDKDFDYAEAFKSLDLEAVKKDLHALMTDSQDWWPADFGHYGPFFIRMAWHSAGTYRVGDGRGGAGAGQQRFAPLNSWPDNVSLDKARRLVWPVKQKYGNKISWADLLILTGNVALESMGFKTFGFAGGREDVWEPDQDVYWGAEKTWLGGDLRYAHGSEGVDKRGVVLPSDDNADGELHSRNLEKPLAAVQMGLIYVNPEGPDGNPDPIAAAKDIRDTFGRMAMNDEETVALIAGGHTFGKTHGAGPADHVGKEPEGAGIESQGLGWNSSYKSGKGADAISSGLEVTWTETPTEWSNYFFKNLFENEWELTKSPAGAHQWIAKNGEEIIPDAFDSSKKHRPTMLTTDLSLRLDPVYEKISRRFYEDPDAFADAFARAWFKLTHRDMGPRVRYLGPDVPAEKLIWQDPIPEVDHVLIDNNDIDALKVKIISSGLSISELVSTAWASASTFRGSDKRGGANGARIRLEPQKFWAVNNPAQLQKVLNGLENIRKEFNDAQTGGKKVSLADLIVLAGTAAVEKAAKDAGHEITVSFAPGRMDASQEETYVESMGYLEPAADGFRNYLKRKYAVSTEALLIDRAQLLTLTAPELTVLIGGMRALDTNFDGSKHGVFTQRPGLLTNDFFVNLLDMSTQWKAMSDDQELYVGTSRSTGDVKWTATRADLVFGSNSELRAVAEVYGSSDGEAKFVKDFAAAWTKVMDLDRFDLH
-</t>
-  </si>
-  <si>
-    <t>ChrspCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>11345|SphspCP01|</t>
   </si>
   <si>
@@ -1226,14 +649,6 @@
     <t>Sphingobacterium sp.</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;11345|SphspCP01| [Sphingobacterium_sp.]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MESKDISKCPFHGEKLLKQAVGGGGTRNQDWWPNQLKLNILRQHSSLSDPMDPDFNYAEAFKSLDLEAVKQDLHALMTDSQDWWPADFGHYGPLFIRMAWHSAGTYRVGDGRGGAGGGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGRNISWADLLILAGNIALESMGFKTFGFAGGREDMWEAEEDVYWGAETTWLGGDVRYTHGSEGVVEGHGVLVSDDDADGDIHSRDLEKPLAAVQMGLIYVNPEGPDGNPDPIAAAKDIRDTFSRMAMDDEETVALIAGGHSFGKTHGAAPATHVGKEPEAAGLESQGLGWHNSYGSGKGPDTITSGLEVIWTTTPTQWSNNFFENLFAFEWELTKSPAGAHQWVAKDAGDIIPDPFDPTKKRKPTMLTTDLALRLDPGFEKISRRFLENPDAFADAFARAWFKLTHRDMGPRSRYLGPDVPKEELIWQDPIPAVDHPLVDANDIVMLKAKILATGLSVSELVSTAWASAATFRNSDKRGGANGARIRLAPQKDWPVNNPPQLTKVLHALENIQREFNNVQPGGRRVSLADLIVLAGCAAIEKAAKDGGHAITVPFNPGRMDASQEQTDVESIAFLEPAADGFRNYRKNKSSIPTEALLIDKAQLLGLTAPELTVLVGGMRVLNTNFDGSAHGVFTRTPGVLTNDFFINLLDMRTAWKASSPDQELYEGYDRATRQPKWTATRADLVFGSNAELRAIAEVYGSSDGKDKFVKDFVAAWTKVMNADRFDLK
-</t>
-  </si>
-  <si>
-    <t>SphspCP01_Catalase peroxidase</t>
-  </si>
-  <si>
     <t>11344|NkoCP01|</t>
   </si>
   <si>
@@ -1241,20 +656,12 @@
   </si>
   <si>
     <t>Niastella koreensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;11344|NkoCP01| [Niastella_koreensis]|Bacteroidetes/Chlorobi|Catalase_peroxidase|complete|
-MEKDSKDIGKCPFHNGSLKQNVGGGGTRNRDWWPNQLKLNILRQHSERSNPMGDDFDYAEAFKSLDLEAVKKDLHALMTDSQSWWPADFGHYGPLFIRMAWHSAGTYRVFDGRGGGGSGQQRFAPLNSWPDNVSLDKARRLLWPIKQKYGNKISWADLMILTGNIALESMGFKTFGFAGGRPDVWEPDEDVYWGAENTWLGGDVRYAHGSPGVVEGHGVLSADEPADGDEHSRNLEKPLAAVQMGLIYVNPEGPDGNPDPIAAAKDIRDTFGRMAMNDEETVALIAGGHSFGKTHGAAPATHVGKEPEAVDLEMQGLGWSNSYKSGKGADTITSGLEVIWTKTPTKWSNNFFENLFGFEWELTKSPAGAHQWVAKNADSIIPDAYDGAKKHLPTMLTTDLSLRFDPIYEKISRRFLENPDAFADAFARAWFKLTHRDMGPRARYLGADVPKEELLWQDPIPAVNHPLIDDKDVAALKEKVLASGLSVSELVSTAWASASTFRGTDKRGGANGARIRLAPQKFWVVNNPPQLQKVLSKLEAVQKEFNEAQSGGKKVSLADLIVLAGCAGIKKAAKDAGFDVTVPFTPGRMDATQEQTDVESVGYLEPHADGFRNYRKTRSHVLTEALLIDKAHLLTLTAPELTVLVGGMRVLDTNFDGSKNGVFTLHPGKLTNDFFVNLLDMNTAWKAAGEDRELYEGTDRTTGKVKWMATRADLVFGSNSELRAIAEVYGAADAKEKFVKDFVAAWNKVMNLDRFDL
-</t>
-  </si>
-  <si>
-    <t>NkoCP01_Catalase peroxidase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1732,12 +1139,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2092,17 +1496,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R136" sqref="A1:R136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2157,25 +1564,13 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
       <c r="C2">
         <v>38.518999999999998</v>
@@ -2211,36 +1606,24 @@
         <v>8405</v>
       </c>
       <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
       </c>
       <c r="C3">
         <v>48.048999999999999</v>
@@ -2276,36 +1659,24 @@
         <v>8405</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
       </c>
       <c r="C4">
         <v>26.041999999999899</v>
@@ -2341,36 +1712,24 @@
         <v>8377</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>27.840999999999902</v>
@@ -2406,36 +1765,24 @@
         <v>8372</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>28.527999999999999</v>
@@ -2471,36 +1818,24 @@
         <v>7332</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>42.933</v>
@@ -2536,36 +1871,24 @@
         <v>7267</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>37.701999999999998</v>
@@ -2601,36 +1924,24 @@
         <v>7267</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>41.246000000000002</v>
@@ -2666,36 +1977,24 @@
         <v>7265</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>37.274999999999999</v>
@@ -2731,36 +2030,24 @@
         <v>7265</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>38.991999999999997</v>
@@ -2796,36 +2083,24 @@
         <v>7262</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>37.548999999999999</v>
@@ -2861,36 +2136,24 @@
         <v>7262</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" t="s">
-        <v>38</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>41.298000000000002</v>
@@ -2926,36 +2189,24 @@
         <v>7261</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>42.606999999999999</v>
@@ -2991,36 +2242,24 @@
         <v>7261</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>41.84</v>
@@ -3056,36 +2295,24 @@
         <v>7258</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="P15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="R15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T15" t="s">
-        <v>38</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>36.789000000000001</v>
@@ -3121,36 +2348,24 @@
         <v>7258</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="R16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S16" t="s">
-        <v>28</v>
-      </c>
-      <c r="T16" t="s">
-        <v>38</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>40.058999999999997</v>
@@ -3186,36 +2401,24 @@
         <v>7256</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="R17" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>40.838000000000001</v>
@@ -3251,36 +2454,24 @@
         <v>7256</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="R18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>43.363</v>
@@ -3316,36 +2507,24 @@
         <v>7255</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>42.298000000000002</v>
@@ -3381,36 +2560,24 @@
         <v>7255</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>41.887999999999998</v>
@@ -3446,36 +2613,24 @@
         <v>7254</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S21" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>42.051000000000002</v>
@@ -3511,36 +2666,24 @@
         <v>7254</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q22" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="R22" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" t="s">
-        <v>29</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>47.803999999999903</v>
@@ -3576,36 +2719,24 @@
         <v>7232</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="R23" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" t="s">
-        <v>29</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>48.744999999999997</v>
@@ -3641,36 +2772,24 @@
         <v>7232</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="R24" t="s">
-        <v>27</v>
-      </c>
-      <c r="S24" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" t="s">
-        <v>29</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>27.300999999999998</v>
@@ -3706,36 +2825,24 @@
         <v>7193</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q25" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="R25" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" t="s">
         <v>29</v>
       </c>
-      <c r="U25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>28.408999999999999</v>
@@ -3771,36 +2878,24 @@
         <v>6984</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="R26" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26" t="s">
-        <v>28</v>
-      </c>
-      <c r="T26" t="s">
         <v>29</v>
       </c>
-      <c r="U26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>27.962</v>
@@ -3836,36 +2931,24 @@
         <v>6982</v>
       </c>
       <c r="O27" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="P27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q27" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="R27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" t="s">
-        <v>28</v>
-      </c>
-      <c r="T27" t="s">
         <v>29</v>
       </c>
-      <c r="U27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>26.023</v>
@@ -3901,36 +2984,24 @@
         <v>6981</v>
       </c>
       <c r="O28" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="P28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="R28" t="s">
-        <v>37</v>
-      </c>
-      <c r="S28" t="s">
-        <v>28</v>
-      </c>
-      <c r="T28" t="s">
         <v>29</v>
       </c>
-      <c r="U28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="V28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>27.273</v>
@@ -3966,36 +3037,24 @@
         <v>6980</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q29" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>37</v>
-      </c>
-      <c r="S29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T29" t="s">
         <v>29</v>
       </c>
-      <c r="U29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="V29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>41.667000000000002</v>
@@ -4031,36 +3090,24 @@
         <v>6288</v>
       </c>
       <c r="O30" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s">
-        <v>27</v>
-      </c>
-      <c r="S30" t="s">
-        <v>28</v>
-      </c>
-      <c r="T30" t="s">
-        <v>29</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>43.765999999999998</v>
@@ -4096,36 +3143,24 @@
         <v>6288</v>
       </c>
       <c r="O31" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R31" t="s">
-        <v>27</v>
-      </c>
-      <c r="S31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T31" t="s">
-        <v>29</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>41.84</v>
@@ -4161,36 +3196,24 @@
         <v>6280</v>
       </c>
       <c r="O32" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q32" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S32" t="s">
-        <v>28</v>
-      </c>
-      <c r="T32" t="s">
-        <v>29</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="V32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>36.863999999999997</v>
@@ -4226,36 +3249,24 @@
         <v>6280</v>
       </c>
       <c r="O33" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q33" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" t="s">
-        <v>28</v>
-      </c>
-      <c r="T33" t="s">
-        <v>29</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="V33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>28.221</v>
@@ -4291,36 +3302,24 @@
         <v>6255</v>
       </c>
       <c r="O34" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="R34" t="s">
-        <v>37</v>
-      </c>
-      <c r="S34" t="s">
-        <v>28</v>
-      </c>
-      <c r="T34" t="s">
         <v>29</v>
       </c>
-      <c r="U34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>26.331</v>
@@ -4356,36 +3355,24 @@
         <v>6253</v>
       </c>
       <c r="O35" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q35" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R35" t="s">
-        <v>37</v>
-      </c>
-      <c r="S35" t="s">
-        <v>28</v>
-      </c>
-      <c r="T35" t="s">
         <v>29</v>
       </c>
-      <c r="U35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="V35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>27.216999999999999</v>
@@ -4421,36 +3408,24 @@
         <v>6203</v>
       </c>
       <c r="O36" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q36" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="R36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S36" t="s">
-        <v>28</v>
-      </c>
-      <c r="T36" t="s">
         <v>29</v>
       </c>
-      <c r="U36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="V36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>24.927</v>
@@ -4486,36 +3461,24 @@
         <v>5801</v>
       </c>
       <c r="O37" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q37" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s">
-        <v>37</v>
-      </c>
-      <c r="S37" t="s">
-        <v>28</v>
-      </c>
-      <c r="T37" t="s">
         <v>29</v>
       </c>
-      <c r="U37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>27.018999999999998</v>
@@ -4551,36 +3514,24 @@
         <v>5352</v>
       </c>
       <c r="O38" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q38" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="R38" t="s">
-        <v>37</v>
-      </c>
-      <c r="S38" t="s">
-        <v>28</v>
-      </c>
-      <c r="T38" t="s">
-        <v>38</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="V38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C39">
         <v>44.381999999999998</v>
@@ -4616,36 +3567,24 @@
         <v>4698</v>
       </c>
       <c r="O39" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q39" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R39" t="s">
-        <v>152</v>
-      </c>
-      <c r="S39" t="s">
-        <v>28</v>
-      </c>
-      <c r="T39" t="s">
-        <v>38</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>44.381999999999998</v>
@@ -4681,36 +3620,24 @@
         <v>4698</v>
       </c>
       <c r="O40" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="P40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q40" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R40" t="s">
-        <v>152</v>
-      </c>
-      <c r="S40" t="s">
-        <v>28</v>
-      </c>
-      <c r="T40" t="s">
-        <v>38</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C41">
         <v>33.758000000000003</v>
@@ -4746,36 +3673,24 @@
         <v>4698</v>
       </c>
       <c r="O41" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q41" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R41" t="s">
-        <v>152</v>
-      </c>
-      <c r="S41" t="s">
-        <v>28</v>
-      </c>
-      <c r="T41" t="s">
-        <v>38</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>28.946999999999999</v>
@@ -4811,36 +3726,24 @@
         <v>4697</v>
       </c>
       <c r="O42" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="P42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q42" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R42" t="s">
-        <v>159</v>
-      </c>
-      <c r="S42" t="s">
-        <v>28</v>
-      </c>
-      <c r="T42" t="s">
-        <v>38</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C43">
         <v>30.22</v>
@@ -4876,36 +3779,24 @@
         <v>4697</v>
       </c>
       <c r="O43" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="P43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q43" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R43" t="s">
-        <v>159</v>
-      </c>
-      <c r="S43" t="s">
-        <v>28</v>
-      </c>
-      <c r="T43" t="s">
-        <v>38</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C44">
         <v>54.027999999999999</v>
@@ -4941,36 +3832,24 @@
         <v>4697</v>
       </c>
       <c r="O44" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q44" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R44" t="s">
-        <v>159</v>
-      </c>
-      <c r="S44" t="s">
-        <v>28</v>
-      </c>
-      <c r="T44" t="s">
-        <v>38</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>28.386999999999901</v>
@@ -5006,36 +3885,24 @@
         <v>4696</v>
       </c>
       <c r="O45" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="P45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q45" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R45" t="s">
-        <v>159</v>
-      </c>
-      <c r="S45" t="s">
-        <v>28</v>
-      </c>
-      <c r="T45" t="s">
-        <v>38</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="V45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>26.346999999999898</v>
@@ -5071,36 +3938,24 @@
         <v>4696</v>
       </c>
       <c r="O46" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="P46" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q46" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R46" t="s">
-        <v>159</v>
-      </c>
-      <c r="S46" t="s">
-        <v>28</v>
-      </c>
-      <c r="T46" t="s">
-        <v>38</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="V46" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C47">
         <v>54.027999999999999</v>
@@ -5136,36 +3991,24 @@
         <v>4696</v>
       </c>
       <c r="O47" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q47" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R47" t="s">
-        <v>159</v>
-      </c>
-      <c r="S47" t="s">
-        <v>28</v>
-      </c>
-      <c r="T47" t="s">
-        <v>38</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="V47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>34.658999999999999</v>
@@ -5201,36 +4044,24 @@
         <v>4523</v>
       </c>
       <c r="O48" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q48" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R48" t="s">
-        <v>152</v>
-      </c>
-      <c r="S48" t="s">
-        <v>28</v>
-      </c>
-      <c r="T48" t="s">
-        <v>38</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="V48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C49">
         <v>34.482999999999997</v>
@@ -5266,36 +4097,24 @@
         <v>4523</v>
       </c>
       <c r="O49" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="P49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q49" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R49" t="s">
-        <v>152</v>
-      </c>
-      <c r="S49" t="s">
-        <v>28</v>
-      </c>
-      <c r="T49" t="s">
-        <v>38</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="V49" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <v>32.5</v>
@@ -5331,36 +4150,24 @@
         <v>4523</v>
       </c>
       <c r="O50" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="P50" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q50" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R50" t="s">
-        <v>152</v>
-      </c>
-      <c r="S50" t="s">
-        <v>28</v>
-      </c>
-      <c r="T50" t="s">
-        <v>38</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="V50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C51">
         <v>29.6</v>
@@ -5396,36 +4203,24 @@
         <v>4518</v>
       </c>
       <c r="O51" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q51" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="R51" t="s">
-        <v>173</v>
-      </c>
-      <c r="S51" t="s">
-        <v>28</v>
-      </c>
-      <c r="T51" t="s">
-        <v>174</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="V51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>38.524999999999999</v>
@@ -5461,36 +4256,24 @@
         <v>4518</v>
       </c>
       <c r="O52" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="P52" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q52" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="R52" t="s">
-        <v>173</v>
-      </c>
-      <c r="S52" t="s">
-        <v>28</v>
-      </c>
-      <c r="T52" t="s">
-        <v>174</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="V52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>32.799999999999997</v>
@@ -5526,36 +4309,24 @@
         <v>4518</v>
       </c>
       <c r="O53" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q53" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="R53" t="s">
-        <v>173</v>
-      </c>
-      <c r="S53" t="s">
-        <v>28</v>
-      </c>
-      <c r="T53" t="s">
-        <v>174</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="V53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C54">
         <v>30.4</v>
@@ -5591,36 +4362,24 @@
         <v>4517</v>
       </c>
       <c r="O54" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q54" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="R54" t="s">
-        <v>173</v>
-      </c>
-      <c r="S54" t="s">
-        <v>28</v>
-      </c>
-      <c r="T54" t="s">
-        <v>174</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>36</v>
@@ -5656,36 +4415,24 @@
         <v>4517</v>
       </c>
       <c r="O55" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q55" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="R55" t="s">
-        <v>173</v>
-      </c>
-      <c r="S55" t="s">
-        <v>28</v>
-      </c>
-      <c r="T55" t="s">
-        <v>174</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C56">
         <v>30.4</v>
@@ -5721,36 +4468,24 @@
         <v>4517</v>
       </c>
       <c r="O56" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="P56" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q56" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="R56" t="s">
-        <v>173</v>
-      </c>
-      <c r="S56" t="s">
-        <v>28</v>
-      </c>
-      <c r="T56" t="s">
-        <v>174</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C57">
         <v>27.434000000000001</v>
@@ -5786,36 +4521,24 @@
         <v>4517</v>
       </c>
       <c r="O57" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="P57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q57" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="R57" t="s">
-        <v>173</v>
-      </c>
-      <c r="S57" t="s">
-        <v>28</v>
-      </c>
-      <c r="T57" t="s">
-        <v>174</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C58">
         <v>28.846</v>
@@ -5851,36 +4574,24 @@
         <v>4442</v>
       </c>
       <c r="O58" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R58" t="s">
-        <v>159</v>
-      </c>
-      <c r="S58" t="s">
-        <v>28</v>
-      </c>
-      <c r="T58" t="s">
-        <v>186</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="V58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C59">
         <v>26.59</v>
@@ -5916,36 +4627,24 @@
         <v>4442</v>
       </c>
       <c r="O59" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="P59" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q59" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R59" t="s">
-        <v>159</v>
-      </c>
-      <c r="S59" t="s">
-        <v>28</v>
-      </c>
-      <c r="T59" t="s">
-        <v>186</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="V59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C60">
         <v>52.335999999999999</v>
@@ -5981,36 +4680,24 @@
         <v>4442</v>
       </c>
       <c r="O60" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="P60" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q60" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R60" t="s">
-        <v>159</v>
-      </c>
-      <c r="S60" t="s">
-        <v>28</v>
-      </c>
-      <c r="T60" t="s">
-        <v>186</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="V60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <v>28.414999999999999</v>
@@ -6046,36 +4733,24 @@
         <v>4435</v>
       </c>
       <c r="O61" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q61" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R61" t="s">
-        <v>159</v>
-      </c>
-      <c r="S61" t="s">
-        <v>28</v>
-      </c>
-      <c r="T61" t="s">
-        <v>186</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C62">
         <v>27.219000000000001</v>
@@ -6111,36 +4786,24 @@
         <v>4435</v>
       </c>
       <c r="O62" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q62" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R62" t="s">
-        <v>159</v>
-      </c>
-      <c r="S62" t="s">
-        <v>28</v>
-      </c>
-      <c r="T62" t="s">
-        <v>186</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C63">
         <v>54.244999999999997</v>
@@ -6176,36 +4839,24 @@
         <v>4435</v>
       </c>
       <c r="O63" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="P63" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q63" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R63" t="s">
-        <v>159</v>
-      </c>
-      <c r="S63" t="s">
-        <v>28</v>
-      </c>
-      <c r="T63" t="s">
-        <v>186</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C64">
         <v>30.832999999999998</v>
@@ -6241,36 +4892,24 @@
         <v>4398</v>
       </c>
       <c r="O64" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q64" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R64" t="s">
-        <v>173</v>
-      </c>
-      <c r="S64" t="s">
-        <v>28</v>
-      </c>
-      <c r="T64" t="s">
-        <v>174</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="V64" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>39.369999999999997</v>
@@ -6306,36 +4945,24 @@
         <v>4398</v>
       </c>
       <c r="O65" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="P65" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q65" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R65" t="s">
-        <v>173</v>
-      </c>
-      <c r="S65" t="s">
-        <v>28</v>
-      </c>
-      <c r="T65" t="s">
-        <v>174</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="V65" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C66">
         <v>31.706999999999901</v>
@@ -6371,36 +4998,24 @@
         <v>4398</v>
       </c>
       <c r="O66" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q66" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R66" t="s">
-        <v>173</v>
-      </c>
-      <c r="S66" t="s">
-        <v>28</v>
-      </c>
-      <c r="T66" t="s">
-        <v>174</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="V66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C67">
         <v>38.393000000000001</v>
@@ -6436,36 +5051,24 @@
         <v>4395</v>
       </c>
       <c r="O67" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="P67" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q67" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R67" t="s">
-        <v>173</v>
-      </c>
-      <c r="S67" t="s">
-        <v>28</v>
-      </c>
-      <c r="T67" t="s">
-        <v>174</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="V67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>30.555999999999901</v>
@@ -6501,36 +5104,24 @@
         <v>4394</v>
       </c>
       <c r="O68" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q68" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R68" t="s">
-        <v>173</v>
-      </c>
-      <c r="S68" t="s">
-        <v>28</v>
-      </c>
-      <c r="T68" t="s">
-        <v>174</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="V68" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C69">
         <v>37.908000000000001</v>
@@ -6566,36 +5157,24 @@
         <v>4394</v>
       </c>
       <c r="O69" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q69" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R69" t="s">
-        <v>173</v>
-      </c>
-      <c r="S69" t="s">
-        <v>28</v>
-      </c>
-      <c r="T69" t="s">
-        <v>174</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="V69" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C70">
         <v>31.292999999999999</v>
@@ -6631,36 +5210,24 @@
         <v>4394</v>
       </c>
       <c r="O70" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="P70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q70" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R70" t="s">
-        <v>173</v>
-      </c>
-      <c r="S70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T70" t="s">
-        <v>174</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="V70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C71">
         <v>27.044</v>
@@ -6696,36 +5263,24 @@
         <v>4394</v>
       </c>
       <c r="O71" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="P71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q71" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="R71" t="s">
-        <v>173</v>
-      </c>
-      <c r="S71" t="s">
-        <v>28</v>
-      </c>
-      <c r="T71" t="s">
-        <v>174</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="V71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C72">
         <v>34.042999999999999</v>
@@ -6761,36 +5316,24 @@
         <v>4393</v>
       </c>
       <c r="O72" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q72" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="R72" t="s">
-        <v>173</v>
-      </c>
-      <c r="S72" t="s">
-        <v>28</v>
-      </c>
-      <c r="T72" t="s">
-        <v>174</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="V72" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C73">
         <v>32.098999999999997</v>
@@ -6826,36 +5369,24 @@
         <v>4393</v>
       </c>
       <c r="O73" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="P73" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q73" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="R73" t="s">
-        <v>173</v>
-      </c>
-      <c r="S73" t="s">
-        <v>28</v>
-      </c>
-      <c r="T73" t="s">
-        <v>174</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="V73" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C74">
         <v>29.375</v>
@@ -6891,36 +5422,24 @@
         <v>4392</v>
       </c>
       <c r="O74" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="P74" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q74" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R74" t="s">
-        <v>173</v>
-      </c>
-      <c r="S74" t="s">
-        <v>28</v>
-      </c>
-      <c r="T74" t="s">
-        <v>174</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="V74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C75">
         <v>30.768999999999998</v>
@@ -6956,36 +5475,24 @@
         <v>4392</v>
       </c>
       <c r="O75" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q75" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R75" t="s">
-        <v>173</v>
-      </c>
-      <c r="S75" t="s">
-        <v>28</v>
-      </c>
-      <c r="T75" t="s">
-        <v>174</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="V75" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C76">
         <v>30.136999999999901</v>
@@ -7021,36 +5528,24 @@
         <v>4392</v>
       </c>
       <c r="O76" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q76" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R76" t="s">
-        <v>173</v>
-      </c>
-      <c r="S76" t="s">
-        <v>28</v>
-      </c>
-      <c r="T76" t="s">
-        <v>174</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="V76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C77">
         <v>32.5</v>
@@ -7086,36 +5581,24 @@
         <v>4392</v>
       </c>
       <c r="O77" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q77" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R77" t="s">
-        <v>173</v>
-      </c>
-      <c r="S77" t="s">
-        <v>28</v>
-      </c>
-      <c r="T77" t="s">
-        <v>174</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="V77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C78">
         <v>31.851999999999901</v>
@@ -7151,36 +5634,24 @@
         <v>4391</v>
       </c>
       <c r="O78" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q78" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="R78" t="s">
-        <v>173</v>
-      </c>
-      <c r="S78" t="s">
-        <v>28</v>
-      </c>
-      <c r="T78" t="s">
-        <v>174</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C79">
         <v>33.332999999999998</v>
@@ -7216,36 +5687,24 @@
         <v>4391</v>
       </c>
       <c r="O79" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="P79" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q79" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="R79" t="s">
-        <v>173</v>
-      </c>
-      <c r="S79" t="s">
-        <v>28</v>
-      </c>
-      <c r="T79" t="s">
-        <v>174</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C80">
         <v>29.920999999999999</v>
@@ -7281,36 +5740,24 @@
         <v>4391</v>
       </c>
       <c r="O80" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q80" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="R80" t="s">
-        <v>173</v>
-      </c>
-      <c r="S80" t="s">
-        <v>28</v>
-      </c>
-      <c r="T80" t="s">
-        <v>174</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V80" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C81">
         <v>33.332999999999998</v>
@@ -7346,36 +5793,24 @@
         <v>4391</v>
       </c>
       <c r="O81" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="P81" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q81" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="R81" t="s">
-        <v>173</v>
-      </c>
-      <c r="S81" t="s">
-        <v>28</v>
-      </c>
-      <c r="T81" t="s">
-        <v>174</v>
-      </c>
-      <c r="U81" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V81" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C82">
         <v>33.098999999999997</v>
@@ -7411,36 +5846,24 @@
         <v>4389</v>
       </c>
       <c r="O82" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="P82" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q82" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="R82" t="s">
-        <v>173</v>
-      </c>
-      <c r="S82" t="s">
-        <v>28</v>
-      </c>
-      <c r="T82" t="s">
-        <v>174</v>
-      </c>
-      <c r="U82" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="V82" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C83">
         <v>26.119</v>
@@ -7476,36 +5899,24 @@
         <v>4389</v>
       </c>
       <c r="O83" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q83" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="R83" t="s">
-        <v>173</v>
-      </c>
-      <c r="S83" t="s">
-        <v>28</v>
-      </c>
-      <c r="T83" t="s">
-        <v>174</v>
-      </c>
-      <c r="U83" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="V83" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C84">
         <v>27.5</v>
@@ -7541,36 +5952,24 @@
         <v>4388</v>
       </c>
       <c r="O84" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q84" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="R84" t="s">
-        <v>173</v>
-      </c>
-      <c r="S84" t="s">
-        <v>28</v>
-      </c>
-      <c r="T84" t="s">
-        <v>174</v>
-      </c>
-      <c r="U84" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="V84" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <v>36.696999999999903</v>
@@ -7606,36 +6005,24 @@
         <v>4388</v>
       </c>
       <c r="O85" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q85" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="R85" t="s">
-        <v>173</v>
-      </c>
-      <c r="S85" t="s">
-        <v>28</v>
-      </c>
-      <c r="T85" t="s">
-        <v>174</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="V85" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C86">
         <v>27.210999999999999</v>
@@ -7671,36 +6058,24 @@
         <v>4388</v>
       </c>
       <c r="O86" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q86" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="R86" t="s">
-        <v>173</v>
-      </c>
-      <c r="S86" t="s">
-        <v>28</v>
-      </c>
-      <c r="T86" t="s">
-        <v>174</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="V86" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C87">
         <v>35.616</v>
@@ -7736,36 +6111,24 @@
         <v>4388</v>
       </c>
       <c r="O87" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q87" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="R87" t="s">
-        <v>173</v>
-      </c>
-      <c r="S87" t="s">
-        <v>28</v>
-      </c>
-      <c r="T87" t="s">
-        <v>174</v>
-      </c>
-      <c r="U87" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="V87" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>33.758000000000003</v>
@@ -7801,36 +6164,24 @@
         <v>4387</v>
       </c>
       <c r="O88" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q88" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="R88" t="s">
-        <v>173</v>
-      </c>
-      <c r="S88" t="s">
-        <v>28</v>
-      </c>
-      <c r="T88" t="s">
-        <v>174</v>
-      </c>
-      <c r="U88" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="V88" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C89">
         <v>28.454999999999998</v>
@@ -7866,36 +6217,24 @@
         <v>4387</v>
       </c>
       <c r="O89" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q89" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="R89" t="s">
-        <v>173</v>
-      </c>
-      <c r="S89" t="s">
-        <v>28</v>
-      </c>
-      <c r="T89" t="s">
-        <v>174</v>
-      </c>
-      <c r="U89" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="V89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C90">
         <v>24.475999999999999</v>
@@ -7931,36 +6270,24 @@
         <v>4387</v>
       </c>
       <c r="O90" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="P90" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q90" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="R90" t="s">
-        <v>173</v>
-      </c>
-      <c r="S90" t="s">
-        <v>28</v>
-      </c>
-      <c r="T90" t="s">
-        <v>174</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="V90" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C91">
         <v>33.973999999999997</v>
@@ -7996,36 +6323,24 @@
         <v>4385</v>
       </c>
       <c r="O91" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q91" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="R91" t="s">
-        <v>173</v>
-      </c>
-      <c r="S91" t="s">
-        <v>28</v>
-      </c>
-      <c r="T91" t="s">
-        <v>174</v>
-      </c>
-      <c r="U91" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="V91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C92">
         <v>23.704000000000001</v>
@@ -8061,36 +6376,24 @@
         <v>4385</v>
       </c>
       <c r="O92" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q92" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="R92" t="s">
-        <v>173</v>
-      </c>
-      <c r="S92" t="s">
-        <v>28</v>
-      </c>
-      <c r="T92" t="s">
-        <v>174</v>
-      </c>
-      <c r="U92" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="V92" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <v>31.148</v>
@@ -8126,36 +6429,24 @@
         <v>4384</v>
       </c>
       <c r="O93" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q93" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="R93" t="s">
-        <v>173</v>
-      </c>
-      <c r="S93" t="s">
-        <v>28</v>
-      </c>
-      <c r="T93" t="s">
-        <v>174</v>
-      </c>
-      <c r="U93" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V93" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C94">
         <v>34.861999999999902</v>
@@ -8191,36 +6482,24 @@
         <v>4384</v>
       </c>
       <c r="O94" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q94" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="R94" t="s">
-        <v>173</v>
-      </c>
-      <c r="S94" t="s">
-        <v>28</v>
-      </c>
-      <c r="T94" t="s">
-        <v>174</v>
-      </c>
-      <c r="U94" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V94" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C95">
         <v>30.555999999999901</v>
@@ -8256,36 +6535,24 @@
         <v>4384</v>
       </c>
       <c r="O95" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q95" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="R95" t="s">
-        <v>173</v>
-      </c>
-      <c r="S95" t="s">
-        <v>28</v>
-      </c>
-      <c r="T95" t="s">
-        <v>174</v>
-      </c>
-      <c r="U95" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V95" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C96">
         <v>26.055999999999901</v>
@@ -8321,36 +6588,24 @@
         <v>4384</v>
       </c>
       <c r="O96" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q96" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="R96" t="s">
-        <v>173</v>
-      </c>
-      <c r="S96" t="s">
-        <v>28</v>
-      </c>
-      <c r="T96" t="s">
-        <v>174</v>
-      </c>
-      <c r="U96" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V96" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C97">
         <v>28.260999999999999</v>
@@ -8386,36 +6641,24 @@
         <v>4383</v>
       </c>
       <c r="O97" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q97" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R97" t="s">
-        <v>173</v>
-      </c>
-      <c r="S97" t="s">
-        <v>28</v>
-      </c>
-      <c r="T97" t="s">
-        <v>174</v>
-      </c>
-      <c r="U97" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="V97" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C98">
         <v>35.78</v>
@@ -8451,36 +6694,24 @@
         <v>4383</v>
       </c>
       <c r="O98" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q98" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R98" t="s">
-        <v>173</v>
-      </c>
-      <c r="S98" t="s">
-        <v>28</v>
-      </c>
-      <c r="T98" t="s">
-        <v>174</v>
-      </c>
-      <c r="U98" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="V98" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C99">
         <v>28.675999999999998</v>
@@ -8516,36 +6747,24 @@
         <v>4383</v>
       </c>
       <c r="O99" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q99" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R99" t="s">
-        <v>173</v>
-      </c>
-      <c r="S99" t="s">
-        <v>28</v>
-      </c>
-      <c r="T99" t="s">
-        <v>174</v>
-      </c>
-      <c r="U99" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="V99" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C100">
         <v>34.567999999999998</v>
@@ -8581,36 +6800,24 @@
         <v>4383</v>
       </c>
       <c r="O100" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q100" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R100" t="s">
-        <v>173</v>
-      </c>
-      <c r="S100" t="s">
-        <v>28</v>
-      </c>
-      <c r="T100" t="s">
-        <v>174</v>
-      </c>
-      <c r="U100" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="V100" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C101">
         <v>29.196999999999999</v>
@@ -8646,36 +6853,24 @@
         <v>4367</v>
       </c>
       <c r="O101" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q101" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R101" t="s">
-        <v>173</v>
-      </c>
-      <c r="S101" t="s">
-        <v>28</v>
-      </c>
-      <c r="T101" t="s">
-        <v>174</v>
-      </c>
-      <c r="U101" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="V101" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C102">
         <v>38.71</v>
@@ -8711,36 +6906,24 @@
         <v>4367</v>
       </c>
       <c r="O102" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q102" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R102" t="s">
-        <v>173</v>
-      </c>
-      <c r="S102" t="s">
-        <v>28</v>
-      </c>
-      <c r="T102" t="s">
-        <v>174</v>
-      </c>
-      <c r="U102" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="V102" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C103">
         <v>31.884</v>
@@ -8776,36 +6959,24 @@
         <v>4367</v>
       </c>
       <c r="O103" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="P103" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q103" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R103" t="s">
-        <v>173</v>
-      </c>
-      <c r="S103" t="s">
-        <v>28</v>
-      </c>
-      <c r="T103" t="s">
-        <v>174</v>
-      </c>
-      <c r="U103" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="V103" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C104">
         <v>29.786999999999999</v>
@@ -8841,36 +7012,24 @@
         <v>4350</v>
       </c>
       <c r="O104" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q104" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="R104" t="s">
-        <v>173</v>
-      </c>
-      <c r="S104" t="s">
-        <v>28</v>
-      </c>
-      <c r="T104" t="s">
-        <v>174</v>
-      </c>
-      <c r="U104" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V104" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C105">
         <v>37.615000000000002</v>
@@ -8906,36 +7065,24 @@
         <v>4350</v>
       </c>
       <c r="O105" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q105" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="R105" t="s">
-        <v>173</v>
-      </c>
-      <c r="S105" t="s">
-        <v>28</v>
-      </c>
-      <c r="T105" t="s">
-        <v>174</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V105" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C106">
         <v>28.302</v>
@@ -8971,36 +7118,24 @@
         <v>4350</v>
       </c>
       <c r="O106" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q106" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="R106" t="s">
-        <v>173</v>
-      </c>
-      <c r="S106" t="s">
-        <v>28</v>
-      </c>
-      <c r="T106" t="s">
-        <v>174</v>
-      </c>
-      <c r="U106" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V106" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C107">
         <v>30.469000000000001</v>
@@ -9036,36 +7171,24 @@
         <v>4327</v>
       </c>
       <c r="O107" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q107" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R107" t="s">
-        <v>173</v>
-      </c>
-      <c r="S107" t="s">
-        <v>28</v>
-      </c>
-      <c r="T107" t="s">
-        <v>174</v>
-      </c>
-      <c r="U107" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="V107" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C108">
         <v>39.231000000000002</v>
@@ -9101,36 +7224,24 @@
         <v>4327</v>
       </c>
       <c r="O108" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q108" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R108" t="s">
-        <v>173</v>
-      </c>
-      <c r="S108" t="s">
-        <v>28</v>
-      </c>
-      <c r="T108" t="s">
-        <v>174</v>
-      </c>
-      <c r="U108" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="V108" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="B109" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C109">
         <v>30.533999999999999</v>
@@ -9166,36 +7277,24 @@
         <v>4327</v>
       </c>
       <c r="O109" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q109" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R109" t="s">
-        <v>173</v>
-      </c>
-      <c r="S109" t="s">
-        <v>28</v>
-      </c>
-      <c r="T109" t="s">
-        <v>174</v>
-      </c>
-      <c r="U109" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="V109" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C110">
         <v>39.369999999999997</v>
@@ -9231,36 +7330,24 @@
         <v>4326</v>
       </c>
       <c r="O110" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q110" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R110" t="s">
-        <v>173</v>
-      </c>
-      <c r="S110" t="s">
-        <v>28</v>
-      </c>
-      <c r="T110" t="s">
-        <v>174</v>
-      </c>
-      <c r="U110" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V110" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C111">
         <v>28.873000000000001</v>
@@ -9296,36 +7383,24 @@
         <v>4326</v>
       </c>
       <c r="O111" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q111" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R111" t="s">
-        <v>173</v>
-      </c>
-      <c r="S111" t="s">
-        <v>28</v>
-      </c>
-      <c r="T111" t="s">
-        <v>174</v>
-      </c>
-      <c r="U111" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V111" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="C112">
         <v>25</v>
@@ -9361,36 +7436,24 @@
         <v>4326</v>
       </c>
       <c r="O112" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q112" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R112" t="s">
-        <v>173</v>
-      </c>
-      <c r="S112" t="s">
-        <v>28</v>
-      </c>
-      <c r="T112" t="s">
-        <v>174</v>
-      </c>
-      <c r="U112" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V112" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C113">
         <v>29.761999999999901</v>
@@ -9426,36 +7489,24 @@
         <v>4326</v>
       </c>
       <c r="O113" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="P113" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q113" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R113" t="s">
-        <v>173</v>
-      </c>
-      <c r="S113" t="s">
-        <v>28</v>
-      </c>
-      <c r="T113" t="s">
-        <v>174</v>
-      </c>
-      <c r="U113" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V113" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C114">
         <v>39.167000000000002</v>
@@ -9491,36 +7542,24 @@
         <v>4319</v>
       </c>
       <c r="O114" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q114" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R114" t="s">
-        <v>173</v>
-      </c>
-      <c r="S114" t="s">
-        <v>28</v>
-      </c>
-      <c r="T114" t="s">
-        <v>174</v>
-      </c>
-      <c r="U114" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="V114" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C115">
         <v>28.570999999999898</v>
@@ -9556,36 +7595,24 @@
         <v>4319</v>
       </c>
       <c r="O115" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q115" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R115" t="s">
-        <v>173</v>
-      </c>
-      <c r="S115" t="s">
-        <v>28</v>
-      </c>
-      <c r="T115" t="s">
-        <v>174</v>
-      </c>
-      <c r="U115" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="V115" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C116">
         <v>27.879000000000001</v>
@@ -9621,36 +7648,24 @@
         <v>4319</v>
       </c>
       <c r="O116" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q116" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R116" t="s">
-        <v>173</v>
-      </c>
-      <c r="S116" t="s">
-        <v>28</v>
-      </c>
-      <c r="T116" t="s">
-        <v>174</v>
-      </c>
-      <c r="U116" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="V116" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C117">
         <v>25.230999999999899</v>
@@ -9686,36 +7701,24 @@
         <v>3650</v>
       </c>
       <c r="O117" t="s">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q117" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R117" t="s">
-        <v>37</v>
-      </c>
-      <c r="S117" t="s">
-        <v>28</v>
-      </c>
-      <c r="T117" t="s">
-        <v>174</v>
-      </c>
-      <c r="U117" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="V117" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C118">
         <v>26.023</v>
@@ -9751,36 +7754,24 @@
         <v>3617</v>
       </c>
       <c r="O118" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q118" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R118" t="s">
-        <v>37</v>
-      </c>
-      <c r="S118" t="s">
-        <v>28</v>
-      </c>
-      <c r="T118" t="s">
-        <v>174</v>
-      </c>
-      <c r="U118" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="V118" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C119">
         <v>28.881999999999898</v>
@@ -9816,36 +7807,24 @@
         <v>3613</v>
       </c>
       <c r="O119" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q119" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R119" t="s">
-        <v>37</v>
-      </c>
-      <c r="S119" t="s">
-        <v>28</v>
-      </c>
-      <c r="T119" t="s">
-        <v>174</v>
-      </c>
-      <c r="U119" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="V119" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C120">
         <v>27.523</v>
@@ -9881,36 +7860,24 @@
         <v>3611</v>
       </c>
       <c r="O120" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q120" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R120" t="s">
-        <v>37</v>
-      </c>
-      <c r="S120" t="s">
-        <v>28</v>
-      </c>
-      <c r="T120" t="s">
-        <v>174</v>
-      </c>
-      <c r="U120" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="V120" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C121">
         <v>27.076999999999899</v>
@@ -9946,36 +7913,24 @@
         <v>3610</v>
       </c>
       <c r="O121" t="s">
-        <v>288</v>
+        <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q121" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="R121" t="s">
-        <v>37</v>
-      </c>
-      <c r="S121" t="s">
-        <v>28</v>
-      </c>
-      <c r="T121" t="s">
-        <v>174</v>
-      </c>
-      <c r="U121" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="V121" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>291</v>
+        <v>172</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C122">
         <v>26.956999999999901</v>
@@ -10011,36 +7966,24 @@
         <v>3590</v>
       </c>
       <c r="O122" t="s">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q122" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="R122" t="s">
-        <v>37</v>
-      </c>
-      <c r="S122" t="s">
-        <v>28</v>
-      </c>
-      <c r="T122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>174</v>
       </c>
-      <c r="U122" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="V122" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>295</v>
-      </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C123">
         <v>26.4</v>
@@ -10076,36 +8019,24 @@
         <v>3560</v>
       </c>
       <c r="O123" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q123" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="R123" t="s">
-        <v>37</v>
-      </c>
-      <c r="S123" t="s">
-        <v>297</v>
-      </c>
-      <c r="T123" t="s">
-        <v>174</v>
-      </c>
-      <c r="U123" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="V123" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C124">
         <v>27.076999999999899</v>
@@ -10141,36 +8072,24 @@
         <v>3063</v>
       </c>
       <c r="O124" t="s">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q124" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="R124" t="s">
-        <v>37</v>
-      </c>
-      <c r="S124" t="s">
-        <v>28</v>
-      </c>
-      <c r="T124" t="s">
-        <v>38</v>
-      </c>
-      <c r="U124" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="V124" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -10206,36 +8125,24 @@
         <v>2669</v>
       </c>
       <c r="O125" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q125" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="R125" t="s">
-        <v>37</v>
-      </c>
-      <c r="S125" t="s">
-        <v>28</v>
-      </c>
-      <c r="T125" t="s">
-        <v>174</v>
-      </c>
-      <c r="U125" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V125" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C126">
         <v>27.041999999999899</v>
@@ -10271,36 +8178,24 @@
         <v>2630</v>
       </c>
       <c r="O126" t="s">
-        <v>310</v>
+        <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q126" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="R126" t="s">
-        <v>37</v>
-      </c>
-      <c r="S126" t="s">
-        <v>28</v>
-      </c>
-      <c r="T126" t="s">
-        <v>38</v>
-      </c>
-      <c r="U126" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="V126" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C127">
         <v>27.691999999999901</v>
@@ -10336,36 +8231,24 @@
         <v>2629</v>
       </c>
       <c r="O127" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="P127" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q127" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="R127" t="s">
-        <v>37</v>
-      </c>
-      <c r="S127" t="s">
-        <v>28</v>
-      </c>
-      <c r="T127" t="s">
-        <v>38</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="V127" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C128">
         <v>28</v>
@@ -10401,36 +8284,24 @@
         <v>2628</v>
       </c>
       <c r="O128" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="P128" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q128" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="R128" t="s">
-        <v>37</v>
-      </c>
-      <c r="S128" t="s">
-        <v>28</v>
-      </c>
-      <c r="T128" t="s">
-        <v>38</v>
-      </c>
-      <c r="U128" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="V128" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C129">
         <v>25.076000000000001</v>
@@ -10466,36 +8337,24 @@
         <v>2535</v>
       </c>
       <c r="O129" t="s">
-        <v>325</v>
+        <v>191</v>
       </c>
       <c r="P129" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q129" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="R129" t="s">
-        <v>37</v>
-      </c>
-      <c r="S129" t="s">
-        <v>28</v>
-      </c>
-      <c r="T129" t="s">
-        <v>174</v>
-      </c>
-      <c r="U129" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="V129" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>328</v>
+        <v>192</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C130">
         <v>25.687999999999999</v>
@@ -10531,36 +8390,24 @@
         <v>2534</v>
       </c>
       <c r="O130" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="P130" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q130" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="R130" t="s">
-        <v>37</v>
-      </c>
-      <c r="S130" t="s">
-        <v>28</v>
-      </c>
-      <c r="T130" t="s">
-        <v>174</v>
-      </c>
-      <c r="U130" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="V130" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C131">
         <v>25.381999999999898</v>
@@ -10596,36 +8443,24 @@
         <v>2369</v>
       </c>
       <c r="O131" t="s">
-        <v>333</v>
+        <v>195</v>
       </c>
       <c r="P131" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q131" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="R131" t="s">
-        <v>37</v>
-      </c>
-      <c r="S131" t="s">
-        <v>28</v>
-      </c>
-      <c r="T131" t="s">
-        <v>334</v>
-      </c>
-      <c r="U131" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="V131" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>196</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C132">
         <v>28.976999999999901</v>
@@ -10661,36 +8496,24 @@
         <v>11348</v>
       </c>
       <c r="O132" t="s">
-        <v>338</v>
+        <v>197</v>
       </c>
       <c r="P132" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q132" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="R132" t="s">
-        <v>37</v>
-      </c>
-      <c r="S132" t="s">
-        <v>28</v>
-      </c>
-      <c r="T132" t="s">
         <v>29</v>
       </c>
-      <c r="U132" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="V132" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>342</v>
+        <v>199</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C133">
         <v>27.840999999999902</v>
@@ -10726,36 +8549,24 @@
         <v>11347</v>
       </c>
       <c r="O133" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="P133" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q133" t="s">
-        <v>344</v>
+        <v>201</v>
       </c>
       <c r="R133" t="s">
-        <v>37</v>
-      </c>
-      <c r="S133" t="s">
-        <v>28</v>
-      </c>
-      <c r="T133" t="s">
         <v>29</v>
       </c>
-      <c r="U133" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="V133" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>347</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C134">
         <v>28.976999999999901</v>
@@ -10791,36 +8602,24 @@
         <v>11346</v>
       </c>
       <c r="O134" t="s">
-        <v>348</v>
+        <v>203</v>
       </c>
       <c r="P134" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q134" t="s">
-        <v>349</v>
+        <v>204</v>
       </c>
       <c r="R134" t="s">
-        <v>37</v>
-      </c>
-      <c r="S134" t="s">
-        <v>28</v>
-      </c>
-      <c r="T134" t="s">
         <v>29</v>
       </c>
-      <c r="U134" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="V134" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>352</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C135">
         <v>35.869999999999997</v>
@@ -10856,36 +8655,24 @@
         <v>11345</v>
       </c>
       <c r="O135" t="s">
-        <v>353</v>
+        <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q135" t="s">
-        <v>354</v>
+        <v>207</v>
       </c>
       <c r="R135" t="s">
-        <v>37</v>
-      </c>
-      <c r="S135" t="s">
-        <v>28</v>
-      </c>
-      <c r="T135" t="s">
         <v>29</v>
       </c>
-      <c r="U135" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="V135" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>357</v>
+        <v>208</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C136">
         <v>27.840999999999902</v>
@@ -10921,32 +8708,20 @@
         <v>11344</v>
       </c>
       <c r="O136" t="s">
-        <v>358</v>
+        <v>209</v>
       </c>
       <c r="P136" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q136" t="s">
-        <v>359</v>
+        <v>210</v>
       </c>
       <c r="R136" t="s">
-        <v>37</v>
-      </c>
-      <c r="S136" t="s">
-        <v>28</v>
-      </c>
-      <c r="T136" t="s">
         <v>29</v>
       </c>
-      <c r="U136" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="V136" t="s">
-        <v>361</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V136">
+  <autoFilter ref="A1:R136" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="17">
       <filters>
         <filter val="Catalase peroxidase"/>
